--- a/Jogos_do_Dia/2023-07-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="203">
   <si>
     <t>League</t>
   </si>
@@ -139,15 +139,15 @@
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
+    <t>Denmark 1st Division</t>
+  </si>
+  <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
-    <t>Denmark 1st Division</t>
-  </si>
-  <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
@@ -160,18 +160,18 @@
     <t>Bulgaria First League</t>
   </si>
   <si>
+    <t>Germany 2. Bundesliga</t>
+  </si>
+  <si>
+    <t>Slovakia Super Liga</t>
+  </si>
+  <si>
+    <t>Austria Bundesliga</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Austria Bundesliga</t>
-  </si>
-  <si>
-    <t>Slovakia Super Liga</t>
-  </si>
-  <si>
-    <t>Germany 2. Bundesliga</t>
-  </si>
-  <si>
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
@@ -184,33 +184,30 @@
     <t>Argentina Primera División</t>
   </si>
   <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
     <t>Venezuela Primera División</t>
   </si>
   <si>
-    <t>Peru Primera División</t>
-  </si>
-  <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
     <t>Uruguay Segunda División</t>
   </si>
   <si>
-    <t>Chile Primera División</t>
-  </si>
-  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
+    <t>Canada Canadian Premier League</t>
   </si>
   <si>
     <t>Colombia Categoria Primera B</t>
   </si>
   <si>
-    <t>Canada Canadian Premier League</t>
-  </si>
-  <si>
     <t>Chile Segunda División</t>
   </si>
   <si>
@@ -298,45 +295,45 @@
     <t>U Craiova 1948</t>
   </si>
   <si>
+    <t>Leoben</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
+    <t>Lafnitz</t>
+  </si>
+  <si>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>Schwarz-Weiß Bregenz</t>
+  </si>
+  <si>
     <t>Admira</t>
   </si>
   <si>
-    <t>Leoben</t>
-  </si>
-  <si>
-    <t>Lafnitz</t>
-  </si>
-  <si>
-    <t>Schwarz-Weiß Bregenz</t>
-  </si>
-  <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>Liefering</t>
+    <t>Veres Rivne</t>
   </si>
   <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
-    <t>Veres Rivne</t>
+    <t>HB Køge</t>
+  </si>
+  <si>
+    <t>Viborg</t>
   </si>
   <si>
     <t>AFC Eskilstuna</t>
   </si>
   <si>
-    <t>Viborg</t>
-  </si>
-  <si>
-    <t>HB Køge</t>
+    <t>SønderjyskE</t>
   </si>
   <si>
     <t>Hobro</t>
   </si>
   <si>
-    <t>SønderjyskE</t>
-  </si>
-  <si>
     <t>FC Schaffhausen</t>
   </si>
   <si>
@@ -355,33 +352,33 @@
     <t>Sion</t>
   </si>
   <si>
+    <t>Rapid Bucureşti</t>
+  </si>
+  <si>
+    <t>Hamburger SV</t>
+  </si>
+  <si>
+    <t>Dukla Banská Bystrica</t>
+  </si>
+  <si>
+    <t>LASK Linz</t>
+  </si>
+  <si>
     <t>Ruch Chorzów</t>
   </si>
   <si>
-    <t>Rapid Bucureşti</t>
-  </si>
-  <si>
-    <t>LASK Linz</t>
-  </si>
-  <si>
-    <t>Dukla Banská Bystrica</t>
-  </si>
-  <si>
-    <t>Hamburger SV</t>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>Union Saint-Gilloise</t>
+  </si>
+  <si>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Drogheda United</t>
   </si>
   <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>Union Saint-Gilloise</t>
-  </si>
-  <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
     <t>Libertad</t>
   </si>
   <si>
@@ -391,96 +388,48 @@
     <t>Unión Santa Fe</t>
   </si>
   <si>
+    <t>Real Garcilaso</t>
+  </si>
+  <si>
     <t>UCV</t>
   </si>
   <si>
-    <t>Real Garcilaso</t>
-  </si>
-  <si>
     <t>General Caballero JLM</t>
   </si>
   <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t>Vorskla</t>
+  </si>
+  <si>
+    <t>Newell's Old Boys</t>
+  </si>
+  <si>
+    <t>Etar</t>
+  </si>
+  <si>
     <t>Rentistas</t>
   </si>
   <si>
-    <t>Belgrano</t>
-  </si>
-  <si>
-    <t>Newell's Old Boys</t>
-  </si>
-  <si>
-    <t>Vorskla</t>
-  </si>
-  <si>
-    <t>O'Higgins</t>
-  </si>
-  <si>
     <t>Ceará</t>
   </si>
   <si>
-    <t>Etar</t>
-  </si>
-  <si>
-    <t>Águia de Marabá</t>
-  </si>
-  <si>
-    <t>Princesa Solimões</t>
-  </si>
-  <si>
-    <t>Maranhão</t>
-  </si>
-  <si>
-    <t>Parnahyba</t>
-  </si>
-  <si>
-    <t>Brasil de Pelotas</t>
-  </si>
-  <si>
-    <t>Ferroviária</t>
-  </si>
-  <si>
-    <t>Democrata GV</t>
-  </si>
-  <si>
-    <t>Inter de Limeira</t>
-  </si>
-  <si>
-    <t>CEOV Operário</t>
-  </si>
-  <si>
-    <t>Vitória Futebol Clube (ES)</t>
-  </si>
-  <si>
-    <t>Brasiliense</t>
-  </si>
-  <si>
-    <t>Potiguar Mossoró</t>
-  </si>
-  <si>
-    <t>Falcon</t>
-  </si>
-  <si>
-    <t>Pacajus</t>
-  </si>
-  <si>
-    <t>Camboriú</t>
-  </si>
-  <si>
-    <t>ASA</t>
-  </si>
-  <si>
     <t>Monagas</t>
   </si>
   <si>
+    <t>Forge FC</t>
+  </si>
+  <si>
     <t>Patriotas Boyacá</t>
   </si>
   <si>
-    <t>Forge FC</t>
-  </si>
-  <si>
     <t>Guaraní</t>
   </si>
   <si>
@@ -490,18 +439,18 @@
     <t>Deportes Limache</t>
   </si>
   <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
     <t>San Marcos</t>
   </si>
   <si>
+    <t>River Plate</t>
+  </si>
+  <si>
     <t>Hermanos Colmenares</t>
   </si>
   <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
     <t>Cortuluá</t>
   </si>
   <si>
@@ -517,45 +466,45 @@
     <t>Universitatea Cluj</t>
   </si>
   <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
+    <t>Kapfenberger SV</t>
+  </si>
+  <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>Horn</t>
-  </si>
-  <si>
-    <t>Kapfenberger SV</t>
-  </si>
-  <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
-    <t>Amstetten</t>
-  </si>
-  <si>
-    <t>Dornbirn</t>
+    <t>Polessya</t>
   </si>
   <si>
     <t>Vaprus</t>
   </si>
   <si>
-    <t>Polessya</t>
+    <t>Vendsyssel</t>
+  </si>
+  <si>
+    <t>Lyngby</t>
   </si>
   <si>
     <t>Skövde AIK</t>
   </si>
   <si>
-    <t>Lyngby</t>
-  </si>
-  <si>
-    <t>Vendsyssel</t>
+    <t>Fredericia</t>
   </si>
   <si>
     <t>Næstved</t>
   </si>
   <si>
-    <t>Fredericia</t>
-  </si>
-  <si>
     <t>Thun</t>
   </si>
   <si>
@@ -574,33 +523,33 @@
     <t>Aarau</t>
   </si>
   <si>
+    <t>Botoşani</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>Podbrezová</t>
+  </si>
+  <si>
+    <t>Rapid Wien</t>
+  </si>
+  <si>
     <t>ŁKS Łódź</t>
   </si>
   <si>
-    <t>Botoşani</t>
-  </si>
-  <si>
-    <t>Rapid Wien</t>
-  </si>
-  <si>
-    <t>Podbrezová</t>
-  </si>
-  <si>
-    <t>Schalke 04</t>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
   </si>
   <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
-    <t>RSC Anderlecht</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
     <t>Nacional Potosí</t>
   </si>
   <si>
@@ -610,96 +559,48 @@
     <t>Defensa y Justicia</t>
   </si>
   <si>
+    <t>Academia Cantolao</t>
+  </si>
+  <si>
     <t>Portuguesa</t>
   </si>
   <si>
-    <t>Academia Cantolao</t>
-  </si>
-  <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
+    <t>Ñublense</t>
+  </si>
+  <si>
     <t>Ludogorets</t>
   </si>
   <si>
+    <t>Rosario Central</t>
+  </si>
+  <si>
+    <t>Dnipro-1</t>
+  </si>
+  <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
+    <t>CSKA Sofia</t>
+  </si>
+  <si>
     <t>Sud América</t>
   </si>
   <si>
-    <t>Rosario Central</t>
-  </si>
-  <si>
-    <t>Talleres Córdoba</t>
-  </si>
-  <si>
-    <t>Dnipro-1</t>
-  </si>
-  <si>
-    <t>Ñublense</t>
-  </si>
-  <si>
     <t>Ituano</t>
   </si>
   <si>
-    <t>CSKA Sofia</t>
-  </si>
-  <si>
-    <t>Uniclinic</t>
-  </si>
-  <si>
-    <t>Ferroviário</t>
-  </si>
-  <si>
-    <t>Tuna Luso</t>
-  </si>
-  <si>
-    <t>Nacional AM</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>Hercílio Luz</t>
-  </si>
-  <si>
-    <t>Anápolis</t>
-  </si>
-  <si>
-    <t>Caxias</t>
-  </si>
-  <si>
-    <t>Portuguesa RJ</t>
-  </si>
-  <si>
-    <t>Ceilândia</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
-    <t>Sousa</t>
-  </si>
-  <si>
-    <t>Retrô</t>
-  </si>
-  <si>
-    <t>Maringá</t>
-  </si>
-  <si>
-    <t>Nacional de Patos</t>
-  </si>
-  <si>
     <t>Zamora</t>
   </si>
   <si>
+    <t>Vancouver FC</t>
+  </si>
+  <si>
     <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Vancouver FC</t>
-  </si>
-  <si>
     <t>Nacional Asunción</t>
   </si>
   <si>
@@ -709,16 +610,16 @@
     <t>Melipilla</t>
   </si>
   <si>
+    <t>CRB</t>
+  </si>
+  <si>
     <t>Recoleta</t>
   </si>
   <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
     <t>Academia Puerto Cabello</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
-    <t>CRB</t>
   </si>
   <si>
     <t>Llaneros</t>
@@ -1083,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI74"/>
+  <dimension ref="A1:AI58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,25 +1105,25 @@
         <v>45135</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G2">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4.82</v>
       </c>
       <c r="I2">
-        <v>9.5</v>
+        <v>8.48</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1237,10 +1138,10 @@
         <v>4.2</v>
       </c>
       <c r="N2">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P2">
         <v>1.3</v>
@@ -1311,25 +1212,25 @@
         <v>45135</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G3">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H3">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -1344,10 +1245,10 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="P3">
         <v>1.42</v>
@@ -1418,16 +1319,16 @@
         <v>45135</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G4">
         <v>2.77</v>
@@ -1525,25 +1426,25 @@
         <v>45135</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G5">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="H5">
         <v>3.13</v>
       </c>
       <c r="I5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1558,10 +1459,10 @@
         <v>2.75</v>
       </c>
       <c r="N5">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1632,49 +1533,49 @@
         <v>45135</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="H6">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N6">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="O6">
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R6">
         <v>1.62</v>
@@ -1683,13 +1584,13 @@
         <v>2.2</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1739,64 +1640,64 @@
         <v>45135</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G7">
-        <v>2.3</v>
+        <v>1.49</v>
       </c>
       <c r="H7">
-        <v>3.6</v>
+        <v>4.64</v>
       </c>
       <c r="I7">
-        <v>2.88</v>
+        <v>5.74</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
+        <v>2.4</v>
+      </c>
+      <c r="P7">
+        <v>1.29</v>
+      </c>
+      <c r="Q7">
+        <v>3.5</v>
+      </c>
+      <c r="R7">
+        <v>1.67</v>
+      </c>
+      <c r="S7">
         <v>2.1</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.62</v>
-      </c>
-      <c r="S7">
-        <v>2.2</v>
-      </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1814,28 +1715,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1846,49 +1747,49 @@
         <v>45135</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G8">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H8">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="I8">
-        <v>4.33</v>
+        <v>4.59</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O8">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R8">
         <v>1.67</v>
@@ -1897,13 +1798,13 @@
         <v>2.1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1921,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AC8">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD8">
-        <v>3.26</v>
+        <v>3.89</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF8">
         <v>1.59</v>
@@ -1942,7 +1843,7 @@
         <v>2.46</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1953,65 +1854,65 @@
         <v>45135</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1.52</v>
       </c>
       <c r="H9">
-        <v>3.6</v>
+        <v>4.54</v>
       </c>
       <c r="I9">
-        <v>2.25</v>
+        <v>5.45</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N9">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="O9">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R9">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S9">
+        <v>2.38</v>
+      </c>
+      <c r="T9">
+        <v>1.15</v>
+      </c>
+      <c r="U9">
+        <v>1.17</v>
+      </c>
+      <c r="V9">
         <v>2.2</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
         <v>0</v>
       </c>
@@ -2028,28 +1929,28 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2060,64 +1961,64 @@
         <v>45135</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G10">
-        <v>1.55</v>
+        <v>2.71</v>
       </c>
       <c r="H10">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="I10">
-        <v>5.25</v>
+        <v>2.29</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O10">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R10">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2135,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2150,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>2.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2167,64 +2068,64 @@
         <v>45135</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G11">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="H11">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="I11">
-        <v>4.33</v>
+        <v>3.57</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="O11">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R11">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S11">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2242,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2257,96 +2158,96 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>45135</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G12">
-        <v>1.21</v>
+        <v>2.88</v>
       </c>
       <c r="H12">
-        <v>6.15</v>
+        <v>3.35</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="J12">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4.77</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="O12">
-        <v>2.89</v>
+        <v>1.82</v>
       </c>
       <c r="P12">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2375,85 +2276,85 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>45135</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G13">
-        <v>2.88</v>
+        <v>1.15</v>
       </c>
       <c r="H13">
-        <v>3.35</v>
+        <v>6.5</v>
       </c>
       <c r="I13">
-        <v>2.25</v>
+        <v>15.5</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="N13">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="O13">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2488,103 +2389,103 @@
         <v>45135</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G14">
-        <v>1.87</v>
+        <v>2.53</v>
       </c>
       <c r="H14">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="I14">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="J14">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K14">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="L14">
+        <v>1.17</v>
+      </c>
+      <c r="M14">
+        <v>4.42</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+      <c r="O14">
+        <v>2.4</v>
+      </c>
+      <c r="P14">
+        <v>1.28</v>
+      </c>
+      <c r="Q14">
+        <v>3.48</v>
+      </c>
+      <c r="R14">
+        <v>1.5</v>
+      </c>
+      <c r="S14">
+        <v>2.5</v>
+      </c>
+      <c r="T14">
+        <v>1.65</v>
+      </c>
+      <c r="U14">
+        <v>1.26</v>
+      </c>
+      <c r="V14">
+        <v>1.41</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>2.13</v>
+      </c>
+      <c r="AC14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14">
+        <v>1.96</v>
+      </c>
+      <c r="AE14">
         <v>1.25</v>
       </c>
-      <c r="M14">
-        <v>3.6</v>
-      </c>
-      <c r="N14">
-        <v>1.87</v>
-      </c>
-      <c r="O14">
-        <v>1.83</v>
-      </c>
-      <c r="P14">
-        <v>1.33</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
-      </c>
-      <c r="R14">
-        <v>1.65</v>
-      </c>
-      <c r="S14">
-        <v>2.1</v>
-      </c>
-      <c r="T14">
-        <v>1.33</v>
-      </c>
-      <c r="U14">
-        <v>1.3</v>
-      </c>
-      <c r="V14">
-        <v>1.73</v>
-      </c>
-      <c r="W14">
-        <v>1.29</v>
-      </c>
-      <c r="X14">
-        <v>0.13</v>
-      </c>
-      <c r="Y14">
-        <v>1.39</v>
-      </c>
-      <c r="Z14">
-        <v>1.28</v>
-      </c>
-      <c r="AA14">
-        <v>2.67</v>
-      </c>
-      <c r="AB14">
-        <v>1.44</v>
-      </c>
-      <c r="AC14">
-        <v>6.5</v>
-      </c>
-      <c r="AD14">
-        <v>3.15</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
       <c r="AF14">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="AG14">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="AH14">
-        <v>1.68</v>
+        <v>2.34</v>
       </c>
       <c r="AI14">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2595,25 +2496,25 @@
         <v>45135</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G15">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="H15">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>4.41</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2628,10 +2529,10 @@
         <v>4.3</v>
       </c>
       <c r="N15">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>1.29</v>
@@ -2702,171 +2603,171 @@
         <v>45135</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16">
+        <v>2.01</v>
+      </c>
+      <c r="H16">
+        <v>3.52</v>
+      </c>
+      <c r="I16">
+        <v>3.65</v>
+      </c>
+      <c r="J16">
+        <v>1.04</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>1.25</v>
+      </c>
+      <c r="M16">
+        <v>3.6</v>
+      </c>
+      <c r="N16">
+        <v>1.75</v>
+      </c>
+      <c r="O16">
+        <v>1.95</v>
+      </c>
+      <c r="P16">
+        <v>1.33</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>1.65</v>
+      </c>
+      <c r="S16">
+        <v>2.1</v>
+      </c>
+      <c r="T16">
+        <v>1.33</v>
+      </c>
+      <c r="U16">
+        <v>1.3</v>
+      </c>
+      <c r="V16">
+        <v>1.73</v>
+      </c>
+      <c r="W16">
+        <v>1.29</v>
+      </c>
+      <c r="X16">
+        <v>0.13</v>
+      </c>
+      <c r="Y16">
+        <v>1.39</v>
+      </c>
+      <c r="Z16">
+        <v>1.28</v>
+      </c>
+      <c r="AA16">
+        <v>2.67</v>
+      </c>
+      <c r="AB16">
+        <v>1.44</v>
+      </c>
+      <c r="AC16">
+        <v>6.5</v>
+      </c>
+      <c r="AD16">
+        <v>3.15</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1.2</v>
+      </c>
+      <c r="AG16">
+        <v>1.33</v>
+      </c>
+      <c r="AH16">
+        <v>1.68</v>
+      </c>
+      <c r="AI16">
         <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16">
-        <v>2.9</v>
-      </c>
-      <c r="H16">
-        <v>3.6</v>
-      </c>
-      <c r="I16">
-        <v>2.1</v>
-      </c>
-      <c r="J16">
-        <v>1.02</v>
-      </c>
-      <c r="K16">
-        <v>17.5</v>
-      </c>
-      <c r="L16">
-        <v>1.17</v>
-      </c>
-      <c r="M16">
-        <v>4.42</v>
-      </c>
-      <c r="N16">
-        <v>1.57</v>
-      </c>
-      <c r="O16">
-        <v>2.35</v>
-      </c>
-      <c r="P16">
-        <v>1.28</v>
-      </c>
-      <c r="Q16">
-        <v>3.48</v>
-      </c>
-      <c r="R16">
-        <v>1.5</v>
-      </c>
-      <c r="S16">
-        <v>2.5</v>
-      </c>
-      <c r="T16">
-        <v>1.65</v>
-      </c>
-      <c r="U16">
-        <v>1.26</v>
-      </c>
-      <c r="V16">
-        <v>1.41</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>2.07</v>
-      </c>
-      <c r="AC16">
-        <v>8.9</v>
-      </c>
-      <c r="AD16">
-        <v>2.01</v>
-      </c>
-      <c r="AE16">
-        <v>1.25</v>
-      </c>
-      <c r="AF16">
-        <v>1.55</v>
-      </c>
-      <c r="AG16">
-        <v>1.78</v>
-      </c>
-      <c r="AH16">
-        <v>2.34</v>
-      </c>
-      <c r="AI16">
-        <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2">
         <v>45135</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G17">
+        <v>1.82</v>
+      </c>
+      <c r="H17">
+        <v>3.92</v>
+      </c>
+      <c r="I17">
+        <v>3.97</v>
+      </c>
+      <c r="J17">
+        <v>1.03</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>1.17</v>
+      </c>
+      <c r="M17">
+        <v>4.5</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <v>2.4</v>
+      </c>
+      <c r="P17">
+        <v>1.29</v>
+      </c>
+      <c r="Q17">
+        <v>3.5</v>
+      </c>
+      <c r="R17">
+        <v>1.57</v>
+      </c>
+      <c r="S17">
         <v>2.25</v>
       </c>
-      <c r="H17">
-        <v>3.3</v>
-      </c>
-      <c r="I17">
-        <v>2.88</v>
-      </c>
-      <c r="J17">
-        <v>1.06</v>
-      </c>
-      <c r="K17">
-        <v>8</v>
-      </c>
-      <c r="L17">
-        <v>1.3</v>
-      </c>
-      <c r="M17">
-        <v>3.4</v>
-      </c>
-      <c r="N17">
-        <v>1.95</v>
-      </c>
-      <c r="O17">
-        <v>1.85</v>
-      </c>
-      <c r="P17">
-        <v>1.4</v>
-      </c>
-      <c r="Q17">
-        <v>2.75</v>
-      </c>
-      <c r="R17">
-        <v>1.73</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
       <c r="T17">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="U17">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="V17">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2878,141 +2779,141 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="AC17">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="AD17">
-        <v>2.32</v>
+        <v>3.02</v>
       </c>
       <c r="AE17">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AG17">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AH17">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="AI17">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2">
         <v>45135</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G18">
-        <v>1.57</v>
+        <v>2.32</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3.42</v>
       </c>
       <c r="I18">
-        <v>4.75</v>
+        <v>3.08</v>
       </c>
       <c r="J18">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L18">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="M18">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="O18">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R18">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S18">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="U18">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="V18">
+        <v>1.58</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1.67</v>
+      </c>
+      <c r="AA18">
+        <v>1.67</v>
+      </c>
+      <c r="AB18">
+        <v>1.81</v>
+      </c>
+      <c r="AC18">
+        <v>9.1</v>
+      </c>
+      <c r="AD18">
         <v>2.32</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>1.51</v>
-      </c>
-      <c r="AC18">
-        <v>10</v>
-      </c>
-      <c r="AD18">
-        <v>3.02</v>
-      </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF18">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AG18">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AH18">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="AI18">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -3023,25 +2924,25 @@
         <v>45135</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G19">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="H19">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I19">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J19">
         <v>1.02</v>
@@ -3056,10 +2957,10 @@
         <v>5</v>
       </c>
       <c r="N19">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="O19">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
         <v>1.22</v>
@@ -3068,10 +2969,10 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S19">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T19">
         <v>1.67</v>
@@ -3130,25 +3031,25 @@
         <v>45135</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G20">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="H20">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="J20">
         <v>1.02</v>
@@ -3163,10 +3064,10 @@
         <v>4.33</v>
       </c>
       <c r="N20">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="O20">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="P20">
         <v>1.3</v>
@@ -3237,16 +3138,16 @@
         <v>45135</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G21">
         <v>2.03</v>
@@ -3344,25 +3245,25 @@
         <v>45135</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G22">
-        <v>2.65</v>
+        <v>2.83</v>
       </c>
       <c r="H22">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="I22">
-        <v>2.23</v>
+        <v>2.39</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3377,10 +3278,10 @@
         <v>4.8</v>
       </c>
       <c r="N22">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="O22">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="P22">
         <v>1.29</v>
@@ -3451,25 +3352,25 @@
         <v>45135</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G23">
-        <v>4.29</v>
+        <v>4.22</v>
       </c>
       <c r="H23">
-        <v>3.72</v>
+        <v>3.54</v>
       </c>
       <c r="I23">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="J23">
         <v>1.05</v>
@@ -3484,10 +3385,10 @@
         <v>3.4</v>
       </c>
       <c r="N23">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="O23">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P23">
         <v>1.36</v>
@@ -3558,25 +3459,25 @@
         <v>45135</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H24">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J24">
         <v>1.03</v>
@@ -3591,10 +3492,10 @@
         <v>4.33</v>
       </c>
       <c r="N24">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O24">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="P24">
         <v>1.29</v>
@@ -3659,216 +3560,216 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
         <v>45135</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G25">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="H25">
-        <v>3.05</v>
+        <v>3.92</v>
       </c>
       <c r="I25">
-        <v>2.95</v>
+        <v>5.62</v>
       </c>
       <c r="J25">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K25">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="L25">
+        <v>1.33</v>
+      </c>
+      <c r="M25">
+        <v>3.1</v>
+      </c>
+      <c r="N25">
+        <v>1.93</v>
+      </c>
+      <c r="O25">
+        <v>1.83</v>
+      </c>
+      <c r="P25">
+        <v>1.4</v>
+      </c>
+      <c r="Q25">
+        <v>2.75</v>
+      </c>
+      <c r="R25">
+        <v>2.15</v>
+      </c>
+      <c r="S25">
+        <v>1.65</v>
+      </c>
+      <c r="T25">
+        <v>1.06</v>
+      </c>
+      <c r="U25">
+        <v>1.17</v>
+      </c>
+      <c r="V25">
+        <v>2.4</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1.95</v>
+      </c>
+      <c r="Z25">
+        <v>1.24</v>
+      </c>
+      <c r="AA25">
+        <v>3.19</v>
+      </c>
+      <c r="AB25">
         <v>1.39</v>
       </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <v>2.35</v>
-      </c>
-      <c r="O25">
-        <v>1.53</v>
-      </c>
-      <c r="P25">
-        <v>1.48</v>
-      </c>
-      <c r="Q25">
-        <v>2.5</v>
-      </c>
-      <c r="R25">
-        <v>1.88</v>
-      </c>
-      <c r="S25">
-        <v>1.82</v>
-      </c>
-      <c r="T25">
-        <v>1.38</v>
-      </c>
-      <c r="U25">
+      <c r="AC25">
+        <v>9.6</v>
+      </c>
+      <c r="AD25">
+        <v>3.82</v>
+      </c>
+      <c r="AE25">
         <v>1.35</v>
       </c>
-      <c r="V25">
-        <v>1.58</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0.8</v>
-      </c>
-      <c r="AA25">
-        <v>0.8</v>
-      </c>
-      <c r="AB25">
-        <v>1.95</v>
-      </c>
-      <c r="AC25">
-        <v>8</v>
-      </c>
-      <c r="AD25">
-        <v>2.05</v>
-      </c>
-      <c r="AE25">
-        <v>1.22</v>
-      </c>
       <c r="AF25">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AG25">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="AH25">
-        <v>2.12</v>
+        <v>2.71</v>
       </c>
       <c r="AI25">
-        <v>2.77</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
         <v>45135</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G26">
-        <v>1.76</v>
+        <v>2.59</v>
       </c>
       <c r="H26">
-        <v>3.2</v>
+        <v>3.59</v>
       </c>
       <c r="I26">
-        <v>4.6</v>
+        <v>2.71</v>
       </c>
       <c r="J26">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L26">
+        <v>1.22</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.7</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
         <v>1.33</v>
       </c>
-      <c r="M26">
-        <v>3.1</v>
-      </c>
-      <c r="N26">
-        <v>2.03</v>
-      </c>
-      <c r="O26">
-        <v>1.83</v>
-      </c>
-      <c r="P26">
-        <v>1.4</v>
-      </c>
       <c r="Q26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R26">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="S26">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="T26">
-        <v>1.06</v>
+        <v>1.42</v>
       </c>
       <c r="U26">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="V26">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="AC26">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD26">
-        <v>3.82</v>
+        <v>2.47</v>
       </c>
       <c r="AE26">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF26">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AG26">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="AH26">
-        <v>2.71</v>
+        <v>2.2</v>
       </c>
       <c r="AI26">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3879,43 +3780,43 @@
         <v>45135</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H27">
         <v>3.5</v>
       </c>
       <c r="I27">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="J27">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P27">
         <v>1.3</v>
@@ -3924,19 +3825,19 @@
         <v>3.4</v>
       </c>
       <c r="R27">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S27">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T27">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3954,28 +3855,28 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3986,43 +3887,43 @@
         <v>45135</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G28">
-        <v>2.28</v>
+        <v>2.07</v>
       </c>
       <c r="H28">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
       <c r="I28">
-        <v>2.98</v>
+        <v>3.43</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N28">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O28">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
         <v>1.3</v>
@@ -4031,19 +3932,19 @@
         <v>3.4</v>
       </c>
       <c r="R28">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S28">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -4061,28 +3962,28 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -4093,103 +3994,103 @@
         <v>45135</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G29">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H29">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="I29">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="J29">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="L29">
+        <v>1.39</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2.3</v>
+      </c>
+      <c r="O29">
+        <v>1.55</v>
+      </c>
+      <c r="P29">
+        <v>1.48</v>
+      </c>
+      <c r="Q29">
+        <v>2.5</v>
+      </c>
+      <c r="R29">
+        <v>1.88</v>
+      </c>
+      <c r="S29">
+        <v>1.82</v>
+      </c>
+      <c r="T29">
+        <v>1.38</v>
+      </c>
+      <c r="U29">
+        <v>1.35</v>
+      </c>
+      <c r="V29">
+        <v>1.58</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0.8</v>
+      </c>
+      <c r="AA29">
+        <v>0.8</v>
+      </c>
+      <c r="AB29">
+        <v>1.95</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>2.05</v>
+      </c>
+      <c r="AE29">
         <v>1.22</v>
       </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>1.7</v>
-      </c>
-      <c r="O29">
-        <v>2.05</v>
-      </c>
-      <c r="P29">
-        <v>1.33</v>
-      </c>
-      <c r="Q29">
-        <v>3.25</v>
-      </c>
-      <c r="R29">
-        <v>1.62</v>
-      </c>
-      <c r="S29">
-        <v>2.2</v>
-      </c>
-      <c r="T29">
-        <v>1.42</v>
-      </c>
-      <c r="U29">
-        <v>1.29</v>
-      </c>
-      <c r="V29">
-        <v>1.55</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>1.8</v>
-      </c>
-      <c r="AC29">
-        <v>7.8</v>
-      </c>
-      <c r="AD29">
-        <v>2.47</v>
-      </c>
-      <c r="AE29">
-        <v>1.25</v>
-      </c>
       <c r="AF29">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AG29">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AH29">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="AI29">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -4200,100 +4101,100 @@
         <v>45135</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G30">
-        <v>2.27</v>
+        <v>1.21</v>
       </c>
       <c r="H30">
-        <v>3.35</v>
+        <v>6.28</v>
       </c>
       <c r="I30">
-        <v>3.18</v>
+        <v>11.16</v>
       </c>
       <c r="J30">
+        <v>1.02</v>
+      </c>
+      <c r="K30">
+        <v>12</v>
+      </c>
+      <c r="L30">
+        <v>1.16</v>
+      </c>
+      <c r="M30">
+        <v>4.75</v>
+      </c>
+      <c r="N30">
+        <v>1.53</v>
+      </c>
+      <c r="O30">
+        <v>2.35</v>
+      </c>
+      <c r="P30">
+        <v>1.25</v>
+      </c>
+      <c r="Q30">
+        <v>3.75</v>
+      </c>
+      <c r="R30">
+        <v>2.25</v>
+      </c>
+      <c r="S30">
+        <v>1.57</v>
+      </c>
+      <c r="T30">
+        <v>1.04</v>
+      </c>
+      <c r="U30">
         <v>1.06</v>
       </c>
-      <c r="K30">
-        <v>8</v>
-      </c>
-      <c r="L30">
-        <v>1.33</v>
-      </c>
-      <c r="M30">
-        <v>3.2</v>
-      </c>
-      <c r="N30">
-        <v>2.08</v>
-      </c>
-      <c r="O30">
-        <v>1.75</v>
-      </c>
-      <c r="P30">
-        <v>1.4</v>
-      </c>
-      <c r="Q30">
-        <v>2.75</v>
-      </c>
-      <c r="R30">
-        <v>1.75</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>1.33</v>
-      </c>
-      <c r="U30">
-        <v>1.25</v>
-      </c>
       <c r="V30">
-        <v>1.57</v>
+        <v>4.2</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="X30">
-        <v>0.92</v>
+        <v>0.08</v>
       </c>
       <c r="Y30">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Z30">
-        <v>1.43</v>
+        <v>0.9</v>
       </c>
       <c r="AA30">
-        <v>3.12</v>
+        <v>2.54</v>
       </c>
       <c r="AB30">
-        <v>1.84</v>
+        <v>1.09</v>
       </c>
       <c r="AC30">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD30">
-        <v>2.31</v>
+        <v>8.85</v>
       </c>
       <c r="AE30">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AF30">
         <v>1.43</v>
       </c>
       <c r="AG30">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AH30">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="AI30">
         <v>2.63</v>
@@ -4301,216 +4202,216 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2">
         <v>45135</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G31">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="H31">
+        <v>3.5</v>
+      </c>
+      <c r="I31">
+        <v>3.18</v>
+      </c>
+      <c r="J31">
+        <v>1.05</v>
+      </c>
+      <c r="K31">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>1.24</v>
+      </c>
+      <c r="M31">
+        <v>4.07</v>
+      </c>
+      <c r="N31">
+        <v>1.84</v>
+      </c>
+      <c r="O31">
+        <v>2.01</v>
+      </c>
+      <c r="P31">
+        <v>1.36</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>1.75</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>1.3</v>
+      </c>
+      <c r="U31">
+        <v>1.28</v>
+      </c>
+      <c r="V31">
+        <v>1.75</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1.75</v>
+      </c>
+      <c r="AC31">
+        <v>7.4</v>
+      </c>
+      <c r="AD31">
+        <v>2.55</v>
+      </c>
+      <c r="AE31">
+        <v>1.3</v>
+      </c>
+      <c r="AF31">
+        <v>1.53</v>
+      </c>
+      <c r="AG31">
+        <v>1.9</v>
+      </c>
+      <c r="AH31">
+        <v>2.44</v>
+      </c>
+      <c r="AI31">
         <v>3.3</v>
-      </c>
-      <c r="I31">
-        <v>2.65</v>
-      </c>
-      <c r="J31">
-        <v>1.07</v>
-      </c>
-      <c r="K31">
-        <v>7.5</v>
-      </c>
-      <c r="L31">
-        <v>1.36</v>
-      </c>
-      <c r="M31">
-        <v>2.95</v>
-      </c>
-      <c r="N31">
-        <v>2.09</v>
-      </c>
-      <c r="O31">
-        <v>1.74</v>
-      </c>
-      <c r="P31">
-        <v>1.44</v>
-      </c>
-      <c r="Q31">
-        <v>2.63</v>
-      </c>
-      <c r="R31">
-        <v>1.95</v>
-      </c>
-      <c r="S31">
-        <v>1.8</v>
-      </c>
-      <c r="T31">
-        <v>1.63</v>
-      </c>
-      <c r="U31">
-        <v>1.25</v>
-      </c>
-      <c r="V31">
-        <v>1.33</v>
-      </c>
-      <c r="W31">
-        <v>1.42</v>
-      </c>
-      <c r="X31">
-        <v>1.27</v>
-      </c>
-      <c r="Y31">
-        <v>1.18</v>
-      </c>
-      <c r="Z31">
-        <v>1.27</v>
-      </c>
-      <c r="AA31">
-        <v>2.45</v>
-      </c>
-      <c r="AB31">
-        <v>2.1</v>
-      </c>
-      <c r="AC31">
-        <v>7.5</v>
-      </c>
-      <c r="AD31">
-        <v>1.91</v>
-      </c>
-      <c r="AE31">
-        <v>1.43</v>
-      </c>
-      <c r="AF31">
-        <v>1.73</v>
-      </c>
-      <c r="AG31">
-        <v>2.1</v>
-      </c>
-      <c r="AH31">
-        <v>2.63</v>
-      </c>
-      <c r="AI31">
-        <v>3.92</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2">
         <v>45135</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="G32">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="H32">
-        <v>3.45</v>
+        <v>3.17</v>
       </c>
       <c r="I32">
-        <v>3.3</v>
+        <v>2.67</v>
       </c>
       <c r="J32">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K32">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="L32">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="M32">
-        <v>4.07</v>
+        <v>2.95</v>
       </c>
       <c r="N32">
+        <v>2.1</v>
+      </c>
+      <c r="O32">
+        <v>1.65</v>
+      </c>
+      <c r="P32">
+        <v>1.44</v>
+      </c>
+      <c r="Q32">
+        <v>2.63</v>
+      </c>
+      <c r="R32">
+        <v>1.95</v>
+      </c>
+      <c r="S32">
         <v>1.8</v>
       </c>
-      <c r="O32">
+      <c r="T32">
+        <v>1.63</v>
+      </c>
+      <c r="U32">
+        <v>1.25</v>
+      </c>
+      <c r="V32">
+        <v>1.33</v>
+      </c>
+      <c r="W32">
+        <v>1.42</v>
+      </c>
+      <c r="X32">
+        <v>1.27</v>
+      </c>
+      <c r="Y32">
+        <v>1.18</v>
+      </c>
+      <c r="Z32">
+        <v>1.27</v>
+      </c>
+      <c r="AA32">
+        <v>2.45</v>
+      </c>
+      <c r="AB32">
+        <v>2.1</v>
+      </c>
+      <c r="AC32">
+        <v>7.5</v>
+      </c>
+      <c r="AD32">
         <v>1.91</v>
       </c>
-      <c r="P32">
-        <v>1.36</v>
-      </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
-      <c r="R32">
-        <v>1.75</v>
-      </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>1.3</v>
-      </c>
-      <c r="U32">
-        <v>1.28</v>
-      </c>
-      <c r="V32">
-        <v>1.75</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>1.75</v>
-      </c>
-      <c r="AC32">
-        <v>7.4</v>
-      </c>
-      <c r="AD32">
-        <v>2.55</v>
-      </c>
       <c r="AE32">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AF32">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AG32">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH32">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
       <c r="AI32">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4521,100 +4422,100 @@
         <v>45135</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33">
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G33">
-        <v>1.23</v>
+        <v>2.2</v>
       </c>
       <c r="H33">
-        <v>5.2</v>
+        <v>3.37</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>3.24</v>
       </c>
       <c r="J33">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="M33">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
+        <v>1.98</v>
+      </c>
+      <c r="O33">
+        <v>1.81</v>
+      </c>
+      <c r="P33">
+        <v>1.4</v>
+      </c>
+      <c r="Q33">
+        <v>2.75</v>
+      </c>
+      <c r="R33">
+        <v>1.75</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>1.33</v>
+      </c>
+      <c r="U33">
+        <v>1.25</v>
+      </c>
+      <c r="V33">
         <v>1.57</v>
       </c>
-      <c r="O33">
-        <v>2.25</v>
-      </c>
-      <c r="P33">
-        <v>1.25</v>
-      </c>
-      <c r="Q33">
-        <v>3.75</v>
-      </c>
-      <c r="R33">
-        <v>2.25</v>
-      </c>
-      <c r="S33">
-        <v>1.57</v>
-      </c>
-      <c r="T33">
-        <v>1.04</v>
-      </c>
-      <c r="U33">
-        <v>1.06</v>
-      </c>
-      <c r="V33">
-        <v>4.2</v>
-      </c>
       <c r="W33">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0.08</v>
+        <v>0.92</v>
       </c>
       <c r="Y33">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Z33">
-        <v>0.9</v>
+        <v>1.43</v>
       </c>
       <c r="AA33">
-        <v>2.54</v>
+        <v>3.12</v>
       </c>
       <c r="AB33">
-        <v>1.09</v>
+        <v>1.84</v>
       </c>
       <c r="AC33">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD33">
-        <v>8.85</v>
+        <v>2.31</v>
       </c>
       <c r="AE33">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AF33">
         <v>1.43</v>
       </c>
       <c r="AG33">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AH33">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="AI33">
         <v>2.63</v>
@@ -4628,25 +4529,25 @@
         <v>45135</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="G34">
-        <v>2.95</v>
+        <v>2.64</v>
       </c>
       <c r="H34">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="I34">
-        <v>2.12</v>
+        <v>2.51</v>
       </c>
       <c r="J34">
         <v>1.03</v>
@@ -4664,7 +4565,7 @@
         <v>1.6</v>
       </c>
       <c r="O34">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="P34">
         <v>1.29</v>
@@ -4724,7 +4625,7 @@
         <v>2.9</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4735,16 +4636,16 @@
         <v>45135</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G35">
         <v>2.15</v>
@@ -4842,16 +4743,16 @@
         <v>45135</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G36">
         <v>2.5</v>
@@ -4949,49 +4850,49 @@
         <v>45135</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G37">
-        <v>3.6</v>
+        <v>1.23</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>4.77</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>8.74</v>
       </c>
       <c r="J37">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L37">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="M37">
-        <v>2.44</v>
+        <v>4.5</v>
       </c>
       <c r="N37">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="O37">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="P37">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="Q37">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="R37">
         <v>2.1</v>
@@ -5000,52 +4901,52 @@
         <v>1.7</v>
       </c>
       <c r="T37">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U37">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="V37">
-        <v>1.24</v>
+        <v>3.7</v>
       </c>
       <c r="W37">
-        <v>1.38</v>
+        <v>2.55</v>
       </c>
       <c r="X37">
+        <v>0.36</v>
+      </c>
+      <c r="Y37">
+        <v>1.52</v>
+      </c>
+      <c r="Z37">
+        <v>0.79</v>
+      </c>
+      <c r="AA37">
+        <v>2.31</v>
+      </c>
+      <c r="AB37">
+        <v>1.23</v>
+      </c>
+      <c r="AC37">
+        <v>13</v>
+      </c>
+      <c r="AD37">
+        <v>4.8</v>
+      </c>
+      <c r="AE37">
+        <v>1.19</v>
+      </c>
+      <c r="AF37">
+        <v>1.36</v>
+      </c>
+      <c r="AG37">
+        <v>1.61</v>
+      </c>
+      <c r="AH37">
         <v>2</v>
       </c>
-      <c r="Y37">
-        <v>1.24</v>
-      </c>
-      <c r="Z37">
-        <v>1.18</v>
-      </c>
-      <c r="AA37">
-        <v>2.42</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
       <c r="AI37">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -5056,49 +4957,49 @@
         <v>45135</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38">
+        <v>3.28</v>
+      </c>
+      <c r="H38">
+        <v>2.75</v>
+      </c>
+      <c r="I38">
+        <v>2.37</v>
+      </c>
+      <c r="J38">
+        <v>1.09</v>
+      </c>
+      <c r="K38">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38">
-        <v>1.23</v>
-      </c>
-      <c r="H38">
-        <v>4.77</v>
-      </c>
-      <c r="I38">
-        <v>8.74</v>
-      </c>
-      <c r="J38">
-        <v>1.01</v>
-      </c>
-      <c r="K38">
-        <v>15</v>
-      </c>
       <c r="L38">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="M38">
-        <v>4.5</v>
+        <v>2.44</v>
       </c>
       <c r="N38">
-        <v>1.57</v>
+        <v>2.48</v>
       </c>
       <c r="O38">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="P38">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="Q38">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="R38">
         <v>2.1</v>
@@ -5107,52 +5008,52 @@
         <v>1.7</v>
       </c>
       <c r="T38">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U38">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="V38">
-        <v>3.7</v>
+        <v>1.24</v>
       </c>
       <c r="W38">
-        <v>2.55</v>
+        <v>1.38</v>
       </c>
       <c r="X38">
-        <v>0.36</v>
+        <v>2</v>
       </c>
       <c r="Y38">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="Z38">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="AA38">
-        <v>2.31</v>
+        <v>2.42</v>
       </c>
       <c r="AB38">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>2.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5163,25 +5064,25 @@
         <v>45135</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G39">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="H39">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="I39">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -5196,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="O39">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -5264,138 +5165,138 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2">
         <v>45135</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Z40">
-        <v>2.64</v>
+        <v>1.11</v>
       </c>
       <c r="AA40">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2">
         <v>45135</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G41">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4.22</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -5410,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -5437,19 +5338,19 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.31</v>
+        <v>2.64</v>
       </c>
       <c r="AA41">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5484,16 +5385,16 @@
         <v>45135</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42">
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G42">
         <v>2.4</v>
@@ -5585,542 +5486,542 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2">
         <v>45135</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="G43">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2">
         <v>45135</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
         <v>45135</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G45">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="Y45">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="Z45">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="AA45">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="AB45">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD45">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AE45">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH45">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2">
         <v>45135</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G46">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="H46">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="I46">
-        <v>5.4</v>
+        <v>4.22</v>
       </c>
       <c r="J46">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>1.41</v>
       </c>
       <c r="M46">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="N46">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="O46">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P46">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q46">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R46">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S46">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T46">
         <v>1.16</v>
       </c>
       <c r="U46">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="V46">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="W46">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X46">
-        <v>0.8</v>
+        <v>1.11</v>
       </c>
       <c r="Y46">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="Z46">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AA46">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="AB46">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AH46">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>2.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2">
         <v>45135</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y47">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z47">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AA47">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
         <v>45135</v>
@@ -6129,76 +6030,76 @@
         <v>83</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W48">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="X48">
-        <v>1.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y48">
         <v>1.53</v>
       </c>
       <c r="Z48">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AA48">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -6216,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH48">
         <v>0</v>
@@ -6233,79 +6134,79 @@
         <v>45135</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="W49">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
-        <v>2.57</v>
+        <v>0.63</v>
       </c>
       <c r="Y49">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="Z49">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AA49">
-        <v>2.97</v>
+        <v>2.6</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6334,106 +6235,106 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
         <v>45135</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W50">
+        <v>2.17</v>
+      </c>
+      <c r="X50">
+        <v>1.27</v>
+      </c>
+      <c r="Y50">
+        <v>1.45</v>
+      </c>
+      <c r="Z50">
         <v>1.5</v>
       </c>
-      <c r="X50">
-        <v>2</v>
-      </c>
-      <c r="Y50">
-        <v>2.21</v>
-      </c>
-      <c r="Z50">
+      <c r="AA50">
+        <v>2.95</v>
+      </c>
+      <c r="AB50">
         <v>1.4</v>
       </c>
-      <c r="AA50">
-        <v>3.61</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
       <c r="AC50">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="AE50">
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -6441,31 +6342,31 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
         <v>45135</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -6480,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -6507,19 +6408,19 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="X51">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="Y51">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="Z51">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AA51">
-        <v>2.69</v>
+        <v>2.43</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6548,138 +6449,138 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>45135</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W52">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="X52">
-        <v>1.71</v>
+        <v>0.78</v>
       </c>
       <c r="Y52">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="Z52">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AA52">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2">
         <v>45135</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -6694,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -6706,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -6721,19 +6622,19 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>1.43</v>
+        <v>2.75</v>
       </c>
       <c r="X53">
-        <v>2.07</v>
+        <v>1.38</v>
       </c>
       <c r="Y53">
-        <v>2.22</v>
+        <v>1.46</v>
       </c>
       <c r="Z53">
-        <v>1.11</v>
+        <v>1.49</v>
       </c>
       <c r="AA53">
-        <v>3.33</v>
+        <v>2.95</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -6762,192 +6663,192 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2">
         <v>45135</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="W54">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
       <c r="X54">
-        <v>1.79</v>
+        <v>1</v>
       </c>
       <c r="Y54">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="Z54">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AA54">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
         <v>45135</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W55">
-        <v>1.57</v>
+        <v>2.11</v>
       </c>
       <c r="X55">
-        <v>1.64</v>
+        <v>0.78</v>
       </c>
       <c r="Y55">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="Z55">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AA55">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -6965,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -6976,138 +6877,138 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>45135</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="W56">
-        <v>1.71</v>
+        <v>2.75</v>
       </c>
       <c r="X56">
-        <v>2.07</v>
+        <v>1.08</v>
       </c>
       <c r="Y56">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="Z56">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AA56">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>45135</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -7122,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -7149,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="Y57">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="Z57">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AA57">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -7190,1820 +7091,108 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2">
         <v>45135</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W58">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="X58">
-        <v>2.07</v>
+        <v>1.25</v>
       </c>
       <c r="Y58">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="Z58">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AA58">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AE58">
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F59" t="s">
-        <v>220</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>1.64</v>
-      </c>
-      <c r="X59">
-        <v>1.5</v>
-      </c>
-      <c r="Y59">
-        <v>1.7</v>
-      </c>
-      <c r="Z59">
-        <v>1.43</v>
-      </c>
-      <c r="AA59">
-        <v>3.13</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60" t="s">
-        <v>221</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>1.36</v>
-      </c>
-      <c r="X60">
-        <v>1.86</v>
-      </c>
-      <c r="Y60">
-        <v>1.94</v>
-      </c>
-      <c r="Z60">
-        <v>1.68</v>
-      </c>
-      <c r="AA60">
-        <v>3.62</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" t="s">
-        <v>222</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>1.57</v>
-      </c>
-      <c r="X61">
-        <v>1.86</v>
-      </c>
-      <c r="Y61">
-        <v>1.83</v>
-      </c>
-      <c r="Z61">
-        <v>1.33</v>
-      </c>
-      <c r="AA61">
-        <v>3.16</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" t="s">
-        <v>223</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>1.57</v>
-      </c>
-      <c r="X62">
-        <v>1.71</v>
-      </c>
-      <c r="Y62">
-        <v>1.66</v>
-      </c>
-      <c r="Z62">
-        <v>1.5</v>
-      </c>
-      <c r="AA62">
-        <v>3.16</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63" t="s">
-        <v>224</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>1.36</v>
-      </c>
-      <c r="X63">
-        <v>1.71</v>
-      </c>
-      <c r="Y63">
-        <v>1.8</v>
-      </c>
-      <c r="Z63">
-        <v>1.44</v>
-      </c>
-      <c r="AA63">
-        <v>3.24</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
-      <c r="A64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64">
-        <v>21</v>
-      </c>
-      <c r="E64" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" t="s">
-        <v>225</v>
-      </c>
-      <c r="G64">
-        <v>2.15</v>
-      </c>
-      <c r="H64">
-        <v>3.1</v>
-      </c>
-      <c r="I64">
-        <v>3.1</v>
-      </c>
-      <c r="J64">
-        <v>1.05</v>
-      </c>
-      <c r="K64">
-        <v>8</v>
-      </c>
-      <c r="L64">
-        <v>1.33</v>
-      </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
-        <v>2.01</v>
-      </c>
-      <c r="O64">
-        <v>1.72</v>
-      </c>
-      <c r="P64">
-        <v>1.46</v>
-      </c>
-      <c r="Q64">
-        <v>2.6</v>
-      </c>
-      <c r="R64">
-        <v>1.82</v>
-      </c>
-      <c r="S64">
-        <v>1.94</v>
-      </c>
-      <c r="T64">
-        <v>1.24</v>
-      </c>
-      <c r="U64">
-        <v>1.31</v>
-      </c>
-      <c r="V64">
-        <v>1.75</v>
-      </c>
-      <c r="W64">
-        <v>1.44</v>
-      </c>
-      <c r="X64">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y64">
-        <v>1.53</v>
-      </c>
-      <c r="Z64">
-        <v>1.42</v>
-      </c>
-      <c r="AA64">
-        <v>2.95</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>153</v>
-      </c>
-      <c r="F65" t="s">
-        <v>226</v>
-      </c>
-      <c r="G65">
-        <v>1.7</v>
-      </c>
-      <c r="H65">
-        <v>3.4</v>
-      </c>
-      <c r="I65">
-        <v>5.09</v>
-      </c>
-      <c r="J65">
-        <v>1.05</v>
-      </c>
-      <c r="K65">
-        <v>6.9</v>
-      </c>
-      <c r="L65">
-        <v>1.42</v>
-      </c>
-      <c r="M65">
-        <v>2.57</v>
-      </c>
-      <c r="N65">
-        <v>2.28</v>
-      </c>
-      <c r="O65">
-        <v>1.51</v>
-      </c>
-      <c r="P65">
-        <v>1.5</v>
-      </c>
-      <c r="Q65">
-        <v>2.42</v>
-      </c>
-      <c r="R65">
-        <v>2.16</v>
-      </c>
-      <c r="S65">
-        <v>1.59</v>
-      </c>
-      <c r="T65">
-        <v>1.14</v>
-      </c>
-      <c r="U65">
-        <v>1.27</v>
-      </c>
-      <c r="V65">
-        <v>2.02</v>
-      </c>
-      <c r="W65">
-        <v>2.17</v>
-      </c>
-      <c r="X65">
-        <v>1.27</v>
-      </c>
-      <c r="Y65">
-        <v>1.45</v>
-      </c>
-      <c r="Z65">
-        <v>1.5</v>
-      </c>
-      <c r="AA65">
-        <v>2.95</v>
-      </c>
-      <c r="AB65">
-        <v>1.4</v>
-      </c>
-      <c r="AC65">
-        <v>9</v>
-      </c>
-      <c r="AD65">
-        <v>3.57</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>1.68</v>
-      </c>
-      <c r="AG65">
-        <v>2.08</v>
-      </c>
-      <c r="AH65">
-        <v>2.71</v>
-      </c>
-      <c r="AI65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66">
-        <v>17</v>
-      </c>
-      <c r="E66" t="s">
-        <v>154</v>
-      </c>
-      <c r="F66" t="s">
-        <v>227</v>
-      </c>
-      <c r="G66">
-        <v>1.3</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>7</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>18</v>
-      </c>
-      <c r="L66">
-        <v>1.19</v>
-      </c>
-      <c r="M66">
-        <v>4.2</v>
-      </c>
-      <c r="N66">
-        <v>1.55</v>
-      </c>
-      <c r="O66">
-        <v>2.29</v>
-      </c>
-      <c r="P66">
-        <v>1.3</v>
-      </c>
-      <c r="Q66">
-        <v>3.4</v>
-      </c>
-      <c r="R66">
-        <v>2.1</v>
-      </c>
-      <c r="S66">
-        <v>1.67</v>
-      </c>
-      <c r="T66">
-        <v>1.03</v>
-      </c>
-      <c r="U66">
-        <v>1.12</v>
-      </c>
-      <c r="V66">
-        <v>2.95</v>
-      </c>
-      <c r="W66">
-        <v>1.53</v>
-      </c>
-      <c r="X66">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y66">
-        <v>1.68</v>
-      </c>
-      <c r="Z66">
-        <v>0.92</v>
-      </c>
-      <c r="AA66">
-        <v>2.6</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-      <c r="AI66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
-      <c r="A67" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" t="s">
-        <v>228</v>
-      </c>
-      <c r="G67">
-        <v>2.65</v>
-      </c>
-      <c r="H67">
-        <v>3.1</v>
-      </c>
-      <c r="I67">
-        <v>2.35</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>2.1</v>
-      </c>
-      <c r="O67">
-        <v>1.58</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>1.33</v>
-      </c>
-      <c r="X67">
-        <v>1.62</v>
-      </c>
-      <c r="Y67">
-        <v>1.26</v>
-      </c>
-      <c r="Z67">
-        <v>1.17</v>
-      </c>
-      <c r="AA67">
-        <v>2.43</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-      <c r="AI67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68">
-        <v>21</v>
-      </c>
-      <c r="E68" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" t="s">
-        <v>229</v>
-      </c>
-      <c r="G68">
-        <v>1.75</v>
-      </c>
-      <c r="H68">
-        <v>3.74</v>
-      </c>
-      <c r="I68">
-        <v>4.58</v>
-      </c>
-      <c r="J68">
-        <v>1.01</v>
-      </c>
-      <c r="K68">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L68">
-        <v>1.3</v>
-      </c>
-      <c r="M68">
-        <v>3.3</v>
-      </c>
-      <c r="N68">
-        <v>1.96</v>
-      </c>
-      <c r="O68">
-        <v>1.84</v>
-      </c>
-      <c r="P68">
-        <v>1.39</v>
-      </c>
-      <c r="Q68">
-        <v>2.75</v>
-      </c>
-      <c r="R68">
-        <v>1.93</v>
-      </c>
-      <c r="S68">
-        <v>1.83</v>
-      </c>
-      <c r="T68">
-        <v>1.2</v>
-      </c>
-      <c r="U68">
-        <v>1.29</v>
-      </c>
-      <c r="V68">
-        <v>1.91</v>
-      </c>
-      <c r="W68">
-        <v>1</v>
-      </c>
-      <c r="X68">
-        <v>0.78</v>
-      </c>
-      <c r="Y68">
-        <v>1.74</v>
-      </c>
-      <c r="Z68">
-        <v>1.22</v>
-      </c>
-      <c r="AA68">
-        <v>2.96</v>
-      </c>
-      <c r="AB68">
-        <v>1.51</v>
-      </c>
-      <c r="AC68">
-        <v>8.5</v>
-      </c>
-      <c r="AD68">
-        <v>3.16</v>
-      </c>
-      <c r="AE68">
-        <v>1.31</v>
-      </c>
-      <c r="AF68">
-        <v>1.6</v>
-      </c>
-      <c r="AG68">
-        <v>2.07</v>
-      </c>
-      <c r="AH68">
-        <v>2.75</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
-      <c r="A69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69">
-        <v>17</v>
-      </c>
-      <c r="E69" t="s">
-        <v>157</v>
-      </c>
-      <c r="F69" t="s">
-        <v>230</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>2.75</v>
-      </c>
-      <c r="X69">
-        <v>1.38</v>
-      </c>
-      <c r="Y69">
-        <v>1.46</v>
-      </c>
-      <c r="Z69">
-        <v>1.49</v>
-      </c>
-      <c r="AA69">
-        <v>2.95</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-      <c r="AI69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35">
-      <c r="A70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70">
-        <v>20</v>
-      </c>
-      <c r="E70" t="s">
-        <v>158</v>
-      </c>
-      <c r="F70" t="s">
-        <v>231</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>3.1</v>
-      </c>
-      <c r="I70">
-        <v>3.6</v>
-      </c>
-      <c r="J70">
-        <v>1.05</v>
-      </c>
-      <c r="K70">
-        <v>11</v>
-      </c>
-      <c r="L70">
-        <v>1.28</v>
-      </c>
-      <c r="M70">
-        <v>3.33</v>
-      </c>
-      <c r="N70">
-        <v>1.9</v>
-      </c>
-      <c r="O70">
-        <v>1.9</v>
-      </c>
-      <c r="P70">
-        <v>1.4</v>
-      </c>
-      <c r="Q70">
-        <v>2.75</v>
-      </c>
-      <c r="R70">
-        <v>1.75</v>
-      </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>1.24</v>
-      </c>
-      <c r="U70">
-        <v>1.3</v>
-      </c>
-      <c r="V70">
-        <v>1.62</v>
-      </c>
-      <c r="W70">
-        <v>2.11</v>
-      </c>
-      <c r="X70">
-        <v>0.78</v>
-      </c>
-      <c r="Y70">
-        <v>1.85</v>
-      </c>
-      <c r="Z70">
-        <v>1.29</v>
-      </c>
-      <c r="AA70">
-        <v>3.14</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35">
-      <c r="A71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71">
-        <v>21</v>
-      </c>
-      <c r="E71" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" t="s">
-        <v>232</v>
-      </c>
-      <c r="G71">
-        <v>3.9</v>
-      </c>
-      <c r="H71">
-        <v>3.4</v>
-      </c>
-      <c r="I71">
-        <v>1.8</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>1.9</v>
-      </c>
-      <c r="O71">
-        <v>1.8</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="X71">
-        <v>1.78</v>
-      </c>
-      <c r="Y71">
-        <v>1.63</v>
-      </c>
-      <c r="Z71">
-        <v>1.44</v>
-      </c>
-      <c r="AA71">
-        <v>3.07</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72">
-        <v>27</v>
-      </c>
-      <c r="E72" t="s">
-        <v>160</v>
-      </c>
-      <c r="F72" t="s">
-        <v>233</v>
-      </c>
-      <c r="G72">
-        <v>1.43</v>
-      </c>
-      <c r="H72">
-        <v>4.5</v>
-      </c>
-      <c r="I72">
-        <v>7</v>
-      </c>
-      <c r="J72">
-        <v>1.03</v>
-      </c>
-      <c r="K72">
-        <v>13</v>
-      </c>
-      <c r="L72">
-        <v>1.23</v>
-      </c>
-      <c r="M72">
-        <v>4.04</v>
-      </c>
-      <c r="N72">
-        <v>1.74</v>
-      </c>
-      <c r="O72">
-        <v>2.04</v>
-      </c>
-      <c r="P72">
-        <v>1.31</v>
-      </c>
-      <c r="Q72">
-        <v>3.19</v>
-      </c>
-      <c r="R72">
-        <v>1.94</v>
-      </c>
-      <c r="S72">
-        <v>1.79</v>
-      </c>
-      <c r="T72">
-        <v>1.08</v>
-      </c>
-      <c r="U72">
-        <v>1.16</v>
-      </c>
-      <c r="V72">
-        <v>2.85</v>
-      </c>
-      <c r="W72">
-        <v>2.75</v>
-      </c>
-      <c r="X72">
-        <v>1.08</v>
-      </c>
-      <c r="Y72">
-        <v>1.79</v>
-      </c>
-      <c r="Z72">
-        <v>1.33</v>
-      </c>
-      <c r="AA72">
-        <v>3.12</v>
-      </c>
-      <c r="AB72">
-        <v>1.34</v>
-      </c>
-      <c r="AC72">
-        <v>9.5</v>
-      </c>
-      <c r="AD72">
-        <v>4.07</v>
-      </c>
-      <c r="AE72">
-        <v>1.27</v>
-      </c>
-      <c r="AF72">
-        <v>1.5</v>
-      </c>
-      <c r="AG72">
-        <v>2</v>
-      </c>
-      <c r="AH72">
-        <v>2.5</v>
-      </c>
-      <c r="AI72">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35">
-      <c r="A73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73">
-        <v>20</v>
-      </c>
-      <c r="E73" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" t="s">
-        <v>234</v>
-      </c>
-      <c r="G73">
-        <v>1.53</v>
-      </c>
-      <c r="H73">
-        <v>3.96</v>
-      </c>
-      <c r="I73">
-        <v>6.74</v>
-      </c>
-      <c r="J73">
-        <v>1.08</v>
-      </c>
-      <c r="K73">
-        <v>7</v>
-      </c>
-      <c r="L73">
-        <v>1.4</v>
-      </c>
-      <c r="M73">
-        <v>2.75</v>
-      </c>
-      <c r="N73">
-        <v>2.31</v>
-      </c>
-      <c r="O73">
-        <v>1.54</v>
-      </c>
-      <c r="P73">
-        <v>1.46</v>
-      </c>
-      <c r="Q73">
-        <v>2.5</v>
-      </c>
-      <c r="R73">
-        <v>2.35</v>
-      </c>
-      <c r="S73">
-        <v>1.52</v>
-      </c>
-      <c r="T73">
-        <v>1.08</v>
-      </c>
-      <c r="U73">
-        <v>1.25</v>
-      </c>
-      <c r="V73">
-        <v>2.45</v>
-      </c>
-      <c r="W73">
-        <v>2.5</v>
-      </c>
-      <c r="X73">
-        <v>1</v>
-      </c>
-      <c r="Y73">
-        <v>1.59</v>
-      </c>
-      <c r="Z73">
-        <v>1.29</v>
-      </c>
-      <c r="AA73">
-        <v>2.88</v>
-      </c>
-      <c r="AB73">
-        <v>1.3</v>
-      </c>
-      <c r="AC73">
-        <v>9</v>
-      </c>
-      <c r="AD73">
-        <v>4.5</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>1.22</v>
-      </c>
-      <c r="AG73">
-        <v>1.54</v>
-      </c>
-      <c r="AH73">
-        <v>1.74</v>
-      </c>
-      <c r="AI73">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35">
-      <c r="A74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>162</v>
-      </c>
-      <c r="F74" t="s">
-        <v>235</v>
-      </c>
-      <c r="G74">
-        <v>2.51</v>
-      </c>
-      <c r="H74">
-        <v>3.02</v>
-      </c>
-      <c r="I74">
-        <v>2.8</v>
-      </c>
-      <c r="J74">
-        <v>1.06</v>
-      </c>
-      <c r="K74">
-        <v>6.6</v>
-      </c>
-      <c r="L74">
-        <v>1.45</v>
-      </c>
-      <c r="M74">
-        <v>2.48</v>
-      </c>
-      <c r="N74">
-        <v>2.38</v>
-      </c>
-      <c r="O74">
-        <v>1.47</v>
-      </c>
-      <c r="P74">
-        <v>1.52</v>
-      </c>
-      <c r="Q74">
-        <v>2.38</v>
-      </c>
-      <c r="R74">
-        <v>2.01</v>
-      </c>
-      <c r="S74">
-        <v>1.68</v>
-      </c>
-      <c r="T74">
-        <v>1.38</v>
-      </c>
-      <c r="U74">
-        <v>1.33</v>
-      </c>
-      <c r="V74">
-        <v>1.46</v>
-      </c>
-      <c r="W74">
-        <v>1.45</v>
-      </c>
-      <c r="X74">
-        <v>1.25</v>
-      </c>
-      <c r="Y74">
-        <v>1.82</v>
-      </c>
-      <c r="Z74">
-        <v>1.13</v>
-      </c>
-      <c r="AA74">
-        <v>2.95</v>
-      </c>
-      <c r="AB74">
-        <v>1.74</v>
-      </c>
-      <c r="AC74">
-        <v>8.4</v>
-      </c>
-      <c r="AD74">
-        <v>2.36</v>
-      </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <v>1.65</v>
-      </c>
-      <c r="AG74">
-        <v>2.04</v>
-      </c>
-      <c r="AH74">
-        <v>2.6</v>
-      </c>
-      <c r="AI74">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-07-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="200">
   <si>
     <t>League</t>
   </si>
@@ -142,12 +142,12 @@
     <t>Denmark 1st Division</t>
   </si>
   <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
+    <t>Austria Bundesliga</t>
+  </si>
+  <si>
     <t>Slovakia Super Liga</t>
   </si>
   <si>
-    <t>Austria Bundesliga</t>
-  </si>
-  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
@@ -178,36 +178,36 @@
     <t>Belgium Pro League</t>
   </si>
   <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
+    <t>Venezuela Primera División</t>
+  </si>
+  <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
+    <t>Uruguay Segunda División</t>
+  </si>
+  <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
+    <t>Canada Canadian Premier League</t>
+  </si>
+  <si>
+    <t>Colombia Categoria Primera B</t>
+  </si>
+  <si>
     <t>Bolivia LFPB</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
-    <t>Peru Primera División</t>
-  </si>
-  <si>
-    <t>Venezuela Primera División</t>
-  </si>
-  <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
-    <t>Chile Primera División</t>
-  </si>
-  <si>
-    <t>Uruguay Segunda División</t>
-  </si>
-  <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
-    <t>Canada Canadian Premier League</t>
-  </si>
-  <si>
-    <t>Colombia Categoria Primera B</t>
-  </si>
-  <si>
     <t>Chile Segunda División</t>
   </si>
   <si>
@@ -250,9 +250,6 @@
     <t>15:45:00</t>
   </si>
   <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
     <t>16:30:00</t>
   </si>
   <si>
@@ -295,21 +292,21 @@
     <t>U Craiova 1948</t>
   </si>
   <si>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>Schwarz-Weiß Bregenz</t>
+  </si>
+  <si>
+    <t>Lafnitz</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
     <t>Leoben</t>
   </si>
   <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>Lafnitz</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
-    <t>Schwarz-Weiß Bregenz</t>
-  </si>
-  <si>
     <t>Admira</t>
   </si>
   <si>
@@ -322,24 +319,24 @@
     <t>HB Køge</t>
   </si>
   <si>
+    <t>AFC Eskilstuna</t>
+  </si>
+  <si>
     <t>Viborg</t>
   </si>
   <si>
-    <t>AFC Eskilstuna</t>
+    <t>Hobro</t>
   </si>
   <si>
     <t>SønderjyskE</t>
   </si>
   <si>
-    <t>Hobro</t>
+    <t>Stade Nyonnais</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
   </si>
   <si>
-    <t>Stade Nyonnais</t>
-  </si>
-  <si>
     <t>Varaždin</t>
   </si>
   <si>
@@ -352,75 +349,72 @@
     <t>Sion</t>
   </si>
   <si>
+    <t>Hamburger SV</t>
+  </si>
+  <si>
     <t>Rapid Bucureşti</t>
   </si>
   <si>
-    <t>Hamburger SV</t>
+    <t>LASK Linz</t>
   </si>
   <si>
     <t>Dukla Banská Bystrica</t>
   </si>
   <si>
-    <t>LASK Linz</t>
-  </si>
-  <si>
     <t>Ruch Chorzów</t>
   </si>
   <si>
+    <t>Cork City</t>
+  </si>
+  <si>
     <t>Bohemians</t>
   </si>
   <si>
+    <t>Drogheda United</t>
+  </si>
+  <si>
     <t>Union Saint-Gilloise</t>
   </si>
   <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
-    <t>Libertad</t>
-  </si>
-  <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
     <t>Unión Santa Fe</t>
   </si>
   <si>
+    <t>UCV</t>
+  </si>
+  <si>
     <t>Real Garcilaso</t>
   </si>
   <si>
-    <t>UCV</t>
-  </si>
-  <si>
     <t>General Caballero JLM</t>
   </si>
   <si>
+    <t>Newell's Old Boys</t>
+  </si>
+  <si>
+    <t>Vorskla</t>
+  </si>
+  <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
+    <t>Etar</t>
+  </si>
+  <si>
+    <t>Rentistas</t>
+  </si>
+  <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
     <t>O'Higgins</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Belgrano</t>
-  </si>
-  <si>
-    <t>Vorskla</t>
-  </si>
-  <si>
-    <t>Newell's Old Boys</t>
-  </si>
-  <si>
-    <t>Etar</t>
-  </si>
-  <si>
-    <t>Rentistas</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
     <t>Monagas</t>
   </si>
   <si>
@@ -430,12 +424,12 @@
     <t>Patriotas Boyacá</t>
   </si>
   <si>
+    <t>Royal Pari</t>
+  </si>
+  <si>
     <t>Guaraní</t>
   </si>
   <si>
-    <t>Royal Pari</t>
-  </si>
-  <si>
     <t>Deportes Limache</t>
   </si>
   <si>
@@ -445,12 +439,12 @@
     <t>San Marcos</t>
   </si>
   <si>
+    <t>Hermanos Colmenares</t>
+  </si>
+  <si>
     <t>River Plate</t>
   </si>
   <si>
-    <t>Hermanos Colmenares</t>
-  </si>
-  <si>
     <t>Cortuluá</t>
   </si>
   <si>
@@ -466,21 +460,21 @@
     <t>Universitatea Cluj</t>
   </si>
   <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
+    <t>Kapfenberger SV</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
     <t>Horn</t>
   </si>
   <si>
-    <t>Amstetten</t>
-  </si>
-  <si>
-    <t>Kapfenberger SV</t>
-  </si>
-  <si>
-    <t>Dornbirn</t>
-  </si>
-  <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
@@ -493,24 +487,24 @@
     <t>Vendsyssel</t>
   </si>
   <si>
+    <t>Skövde AIK</t>
+  </si>
+  <si>
     <t>Lyngby</t>
   </si>
   <si>
-    <t>Skövde AIK</t>
+    <t>Næstved</t>
   </si>
   <si>
     <t>Fredericia</t>
   </si>
   <si>
-    <t>Næstved</t>
+    <t>Neuchâtel Xamax</t>
   </si>
   <si>
     <t>Thun</t>
   </si>
   <si>
-    <t>Neuchâtel Xamax</t>
-  </si>
-  <si>
     <t>Slaven Koprivnica</t>
   </si>
   <si>
@@ -523,75 +517,72 @@
     <t>Aarau</t>
   </si>
   <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
     <t>Botoşani</t>
   </si>
   <si>
-    <t>Schalke 04</t>
+    <t>Rapid Wien</t>
   </si>
   <si>
     <t>Podbrezová</t>
   </si>
   <si>
-    <t>Rapid Wien</t>
-  </si>
-  <si>
     <t>ŁKS Łódź</t>
   </si>
   <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
     <t>UCD</t>
   </si>
   <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
     <t>RSC Anderlecht</t>
   </si>
   <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>Nacional Potosí</t>
-  </si>
-  <si>
     <t>Estudiantes</t>
   </si>
   <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
+    <t>Portuguesa</t>
+  </si>
+  <si>
     <t>Academia Cantolao</t>
   </si>
   <si>
-    <t>Portuguesa</t>
-  </si>
-  <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
+    <t>Dnipro-1</t>
+  </si>
+  <si>
+    <t>Ludogorets</t>
+  </si>
+  <si>
+    <t>CSKA Sofia</t>
+  </si>
+  <si>
+    <t>Sud América</t>
+  </si>
+  <si>
+    <t>Rosario Central</t>
+  </si>
+  <si>
+    <t>Ituano</t>
+  </si>
+  <si>
     <t>Ñublense</t>
   </si>
   <si>
-    <t>Ludogorets</t>
-  </si>
-  <si>
-    <t>Rosario Central</t>
-  </si>
-  <si>
-    <t>Dnipro-1</t>
-  </si>
-  <si>
-    <t>Talleres Córdoba</t>
-  </si>
-  <si>
-    <t>CSKA Sofia</t>
-  </si>
-  <si>
-    <t>Sud América</t>
-  </si>
-  <si>
-    <t>Ituano</t>
-  </si>
-  <si>
     <t>Zamora</t>
   </si>
   <si>
@@ -601,12 +592,12 @@
     <t>Real Cartagena</t>
   </si>
   <si>
+    <t>Real Tomayapo</t>
+  </si>
+  <si>
     <t>Nacional Asunción</t>
   </si>
   <si>
-    <t>Real Tomayapo</t>
-  </si>
-  <si>
     <t>Melipilla</t>
   </si>
   <si>
@@ -616,10 +607,10 @@
     <t>Recoleta</t>
   </si>
   <si>
+    <t>Academia Puerto Cabello</t>
+  </si>
+  <si>
     <t>Racing Club</t>
-  </si>
-  <si>
-    <t>Academia Puerto Cabello</t>
   </si>
   <si>
     <t>Llaneros</t>
@@ -984,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI58"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,19 +1102,19 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G2">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="H2">
-        <v>4.82</v>
+        <v>5.5</v>
       </c>
       <c r="I2">
-        <v>8.48</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1138,10 +1129,10 @@
         <v>4.2</v>
       </c>
       <c r="N2">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="O2">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="P2">
         <v>1.3</v>
@@ -1165,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="W2">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="X2">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="Y2">
         <v>1.13</v>
@@ -1218,19 +1209,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G3">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -1272,10 +1263,10 @@
         <v>1.3</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1325,10 +1316,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G4">
         <v>2.77</v>
@@ -1379,10 +1370,10 @@
         <v>1.44</v>
       </c>
       <c r="W4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="X4">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="Y4">
         <v>1.23</v>
@@ -1432,19 +1423,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G5">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="H5">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1459,10 +1450,10 @@
         <v>2.75</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="O5">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1489,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>1.24</v>
@@ -1539,64 +1530,64 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G6">
-        <v>2.78</v>
+        <v>1.7</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I6">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L6">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M6">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N6">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="O6">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="P6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q6">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R6">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S6">
+        <v>2.5</v>
+      </c>
+      <c r="T6">
+        <v>1.15</v>
+      </c>
+      <c r="U6">
+        <v>1.17</v>
+      </c>
+      <c r="V6">
         <v>2.2</v>
       </c>
-      <c r="T6">
-        <v>1.42</v>
-      </c>
-      <c r="U6">
-        <v>1.22</v>
-      </c>
-      <c r="V6">
-        <v>1.6</v>
-      </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1608,28 +1599,28 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1646,97 +1637,97 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G7">
-        <v>1.49</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>4.64</v>
+        <v>3.6</v>
       </c>
       <c r="I7">
-        <v>5.74</v>
+        <v>2.2</v>
       </c>
       <c r="J7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="O7">
+        <v>2.15</v>
+      </c>
+      <c r="P7">
+        <v>1.33</v>
+      </c>
+      <c r="Q7">
+        <v>3.25</v>
+      </c>
+      <c r="R7">
+        <v>1.62</v>
+      </c>
+      <c r="S7">
+        <v>2.2</v>
+      </c>
+      <c r="T7">
+        <v>1.63</v>
+      </c>
+      <c r="U7">
+        <v>1.22</v>
+      </c>
+      <c r="V7">
+        <v>1.4</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>2.4</v>
       </c>
-      <c r="P7">
-        <v>1.29</v>
-      </c>
-      <c r="Q7">
-        <v>3.5</v>
-      </c>
-      <c r="R7">
-        <v>1.67</v>
-      </c>
-      <c r="S7">
-        <v>2.1</v>
-      </c>
-      <c r="T7">
-        <v>1.12</v>
-      </c>
-      <c r="U7">
-        <v>1.16</v>
-      </c>
-      <c r="V7">
-        <v>2.35</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>1.37</v>
-      </c>
       <c r="AC7">
-        <v>7.9</v>
+        <v>5.75</v>
       </c>
       <c r="AD7">
-        <v>4.1</v>
+        <v>1.76</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF7">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AG7">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="AH7">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="AI7">
-        <v>2.37</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1753,19 +1744,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="H8">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>4.59</v>
+        <v>3.75</v>
       </c>
       <c r="J8">
         <v>1.03</v>
@@ -1780,7 +1771,7 @@
         <v>4.5</v>
       </c>
       <c r="N8">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O8">
         <v>2.25</v>
@@ -1792,10 +1783,10 @@
         <v>3.4</v>
       </c>
       <c r="R8">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S8">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T8">
         <v>1.16</v>
@@ -1807,7 +1798,7 @@
         <v>2.15</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1860,25 +1851,25 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G9">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="H9">
-        <v>4.54</v>
+        <v>4.33</v>
       </c>
       <c r="I9">
-        <v>5.45</v>
+        <v>4.75</v>
       </c>
       <c r="J9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L9">
         <v>1.16</v>
@@ -1887,34 +1878,34 @@
         <v>4.75</v>
       </c>
       <c r="N9">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="O9">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="P9">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q9">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R9">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="S9">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="U9">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="V9">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1929,28 +1920,28 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AC9">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD9">
-        <v>3.89</v>
+        <v>4.1</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AG9">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AH9">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AI9">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1967,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G10">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I10">
-        <v>2.29</v>
+        <v>3.4</v>
       </c>
       <c r="J10">
         <v>1.04</v>
@@ -1988,13 +1979,13 @@
         <v>10</v>
       </c>
       <c r="L10">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N10">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -2006,58 +1997,58 @@
         <v>3.25</v>
       </c>
       <c r="R10">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S10">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T10">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="U10">
         <v>1.22</v>
       </c>
       <c r="V10">
+        <v>1.6</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1.71</v>
+      </c>
+      <c r="AC10">
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>2.45</v>
+      </c>
+      <c r="AE10">
+        <v>1.19</v>
+      </c>
+      <c r="AF10">
         <v>1.4</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2074,19 +2065,19 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="H11">
         <v>3.75</v>
       </c>
       <c r="I11">
-        <v>3.57</v>
+        <v>2.9</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -2101,10 +2092,10 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="P11">
         <v>1.33</v>
@@ -2128,7 +2119,7 @@
         <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2143,28 +2134,28 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2181,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G12">
         <v>2.88</v>
@@ -2238,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2288,19 +2279,19 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G13">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="H13">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <v>1.01</v>
@@ -2342,10 +2333,10 @@
         <v>3.5</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y13">
         <v>2.18</v>
@@ -2395,19 +2386,19 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G14">
-        <v>2.53</v>
+        <v>2.9</v>
       </c>
       <c r="H14">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J14">
         <v>1.02</v>
@@ -2422,10 +2413,10 @@
         <v>4.42</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O14">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P14">
         <v>1.28</v>
@@ -2434,10 +2425,10 @@
         <v>3.48</v>
       </c>
       <c r="R14">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T14">
         <v>1.65</v>
@@ -2449,7 +2440,7 @@
         <v>1.41</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2464,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
       <c r="AC14">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD14">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="AE14">
         <v>1.25</v>
@@ -2499,100 +2490,100 @@
         <v>72</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G15">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="H15">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I15">
-        <v>4.41</v>
+        <v>3.4</v>
       </c>
       <c r="J15">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K15">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="L15">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M15">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P15">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q15">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>1.65</v>
       </c>
       <c r="S15">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="T15">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U15">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="V15">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AB15">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AC15">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD15">
-        <v>2.67</v>
+        <v>3.15</v>
       </c>
       <c r="AE15">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AG15">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="AH15">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="AI15">
-        <v>3.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2606,100 +2597,100 @@
         <v>72</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G16">
-        <v>2.01</v>
+        <v>1.73</v>
       </c>
       <c r="H16">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="J16">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="L16">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="P16">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R16">
         <v>1.65</v>
       </c>
       <c r="S16">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="T16">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U16">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V16">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="W16">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1.64</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
         <v>2.67</v>
       </c>
-      <c r="AB16">
-        <v>1.44</v>
-      </c>
-      <c r="AC16">
-        <v>6.5</v>
-      </c>
-      <c r="AD16">
-        <v>3.15</v>
-      </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF16">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AG16">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="AH16">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2716,97 +2707,97 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G17">
-        <v>1.82</v>
+        <v>2.55</v>
       </c>
       <c r="H17">
-        <v>3.92</v>
+        <v>3.3</v>
       </c>
       <c r="I17">
-        <v>3.97</v>
+        <v>2.8</v>
       </c>
       <c r="J17">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="M17">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="P17">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q17">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R17">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S17">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T17">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="U17">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="V17">
+        <v>1.58</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1.67</v>
+      </c>
+      <c r="AA17">
+        <v>1.67</v>
+      </c>
+      <c r="AB17">
+        <v>1.81</v>
+      </c>
+      <c r="AC17">
+        <v>9.1</v>
+      </c>
+      <c r="AD17">
         <v>2.32</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>1.51</v>
-      </c>
-      <c r="AC17">
-        <v>10</v>
-      </c>
-      <c r="AD17">
-        <v>3.02</v>
-      </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF17">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AG17">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="AH17">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="AI17">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2823,97 +2814,97 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G18">
+        <v>1.7</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>4.5</v>
+      </c>
+      <c r="J18">
+        <v>1.03</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>1.17</v>
+      </c>
+      <c r="M18">
+        <v>4.5</v>
+      </c>
+      <c r="N18">
+        <v>1.53</v>
+      </c>
+      <c r="O18">
+        <v>2.4</v>
+      </c>
+      <c r="P18">
+        <v>1.29</v>
+      </c>
+      <c r="Q18">
+        <v>3.5</v>
+      </c>
+      <c r="R18">
+        <v>1.57</v>
+      </c>
+      <c r="S18">
+        <v>2.25</v>
+      </c>
+      <c r="T18">
+        <v>1.17</v>
+      </c>
+      <c r="U18">
+        <v>1.21</v>
+      </c>
+      <c r="V18">
         <v>2.32</v>
       </c>
-      <c r="H18">
-        <v>3.42</v>
-      </c>
-      <c r="I18">
-        <v>3.08</v>
-      </c>
-      <c r="J18">
-        <v>1.06</v>
-      </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
-      <c r="L18">
-        <v>1.3</v>
-      </c>
-      <c r="M18">
-        <v>3.4</v>
-      </c>
-      <c r="N18">
-        <v>1.82</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>1.4</v>
-      </c>
-      <c r="Q18">
-        <v>2.75</v>
-      </c>
-      <c r="R18">
-        <v>1.73</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>1.41</v>
-      </c>
-      <c r="U18">
-        <v>1.31</v>
-      </c>
-      <c r="V18">
-        <v>1.58</v>
-      </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>1.81</v>
+        <v>1.46</v>
       </c>
       <c r="AC18">
-        <v>9.1</v>
+        <v>10.25</v>
       </c>
       <c r="AD18">
-        <v>2.32</v>
+        <v>3.22</v>
       </c>
       <c r="AE18">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AF18">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AG18">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AH18">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="AI18">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2930,61 +2921,61 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H19">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I19">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="J19">
         <v>1.02</v>
       </c>
       <c r="K19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N19">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="P19">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R19">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S19">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T19">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="U19">
         <v>1.25</v>
       </c>
       <c r="V19">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2999,28 +2990,28 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="AC19">
         <v>9.4</v>
       </c>
       <c r="AD19">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF19">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AG19">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AH19">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AI19">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3037,43 +3028,43 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G20">
-        <v>1.68</v>
+        <v>3.4</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I20">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="J20">
         <v>1.02</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="M20">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="O20">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="P20">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Q20">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R20">
         <v>1.5</v>
@@ -3082,19 +3073,19 @@
         <v>2.5</v>
       </c>
       <c r="T20">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="U20">
         <v>1.25</v>
       </c>
       <c r="V20">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3106,28 +3097,28 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="AC20">
         <v>9.5</v>
       </c>
       <c r="AD20">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF20">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AG20">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AH20">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AI20">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3144,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G21">
         <v>2.03</v>
@@ -3198,10 +3189,10 @@
         <v>1.78</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -3251,19 +3242,19 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G22">
-        <v>2.83</v>
+        <v>2.52</v>
       </c>
       <c r="H22">
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
       <c r="I22">
-        <v>2.39</v>
+        <v>2.2</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3305,10 +3296,10 @@
         <v>1.44</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3358,19 +3349,19 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G23">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="H23">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="I23">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="J23">
         <v>1.05</v>
@@ -3385,10 +3376,10 @@
         <v>3.4</v>
       </c>
       <c r="N23">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="O23">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P23">
         <v>1.36</v>
@@ -3412,10 +3403,10 @@
         <v>1.21</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>1.05</v>
@@ -3427,28 +3418,28 @@
         <v>2.65</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3465,19 +3456,19 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J24">
         <v>1.03</v>
@@ -3492,10 +3483,10 @@
         <v>4.33</v>
       </c>
       <c r="N24">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O24">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="P24">
         <v>1.29</v>
@@ -3519,7 +3510,7 @@
         <v>1.73</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -3534,19 +3525,19 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AC24">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24">
-        <v>2.85</v>
+        <v>2.59</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG24">
         <v>1.37</v>
@@ -3560,7 +3551,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>45135</v>
@@ -3569,105 +3560,105 @@
         <v>76</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25">
+        <v>2.37</v>
+      </c>
+      <c r="H25">
+        <v>3.6</v>
+      </c>
+      <c r="I25">
+        <v>2.84</v>
+      </c>
+      <c r="J25">
+        <v>1.04</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>1.22</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>1.53</v>
+      </c>
+      <c r="O25">
+        <v>2.33</v>
+      </c>
+      <c r="P25">
+        <v>1.33</v>
+      </c>
+      <c r="Q25">
+        <v>3.25</v>
+      </c>
+      <c r="R25">
+        <v>1.62</v>
+      </c>
+      <c r="S25">
+        <v>2.2</v>
+      </c>
+      <c r="T25">
+        <v>1.42</v>
+      </c>
+      <c r="U25">
+        <v>1.29</v>
+      </c>
+      <c r="V25">
+        <v>1.55</v>
+      </c>
+      <c r="W25">
         <v>3</v>
       </c>
-      <c r="E25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25">
-        <v>1.55</v>
-      </c>
-      <c r="H25">
-        <v>3.92</v>
-      </c>
-      <c r="I25">
-        <v>5.62</v>
-      </c>
-      <c r="J25">
-        <v>1.06</v>
-      </c>
-      <c r="K25">
-        <v>8</v>
-      </c>
-      <c r="L25">
-        <v>1.33</v>
-      </c>
-      <c r="M25">
-        <v>3.1</v>
-      </c>
-      <c r="N25">
-        <v>1.93</v>
-      </c>
-      <c r="O25">
-        <v>1.83</v>
-      </c>
-      <c r="P25">
-        <v>1.4</v>
-      </c>
-      <c r="Q25">
-        <v>2.75</v>
-      </c>
-      <c r="R25">
-        <v>2.15</v>
-      </c>
-      <c r="S25">
-        <v>1.65</v>
-      </c>
-      <c r="T25">
-        <v>1.06</v>
-      </c>
-      <c r="U25">
-        <v>1.17</v>
-      </c>
-      <c r="V25">
-        <v>2.4</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="AC25">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD25">
-        <v>3.82</v>
+        <v>2.47</v>
       </c>
       <c r="AE25">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF25">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AG25">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="AH25">
-        <v>2.71</v>
+        <v>2.2</v>
       </c>
       <c r="AI25">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
         <v>45135</v>
@@ -3676,100 +3667,100 @@
         <v>76</v>
       </c>
       <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26">
+        <v>1.43</v>
+      </c>
+      <c r="H26">
+        <v>4.1</v>
+      </c>
+      <c r="I26">
+        <v>6.3</v>
+      </c>
+      <c r="J26">
+        <v>1.06</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="L26">
+        <v>1.33</v>
+      </c>
+      <c r="M26">
+        <v>3.1</v>
+      </c>
+      <c r="N26">
+        <v>1.99</v>
+      </c>
+      <c r="O26">
+        <v>1.81</v>
+      </c>
+      <c r="P26">
+        <v>1.4</v>
+      </c>
+      <c r="Q26">
+        <v>2.75</v>
+      </c>
+      <c r="R26">
+        <v>2.15</v>
+      </c>
+      <c r="S26">
+        <v>1.65</v>
+      </c>
+      <c r="T26">
+        <v>1.06</v>
+      </c>
+      <c r="U26">
+        <v>1.17</v>
+      </c>
+      <c r="V26">
+        <v>2.4</v>
+      </c>
+      <c r="W26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26">
-        <v>2.59</v>
-      </c>
-      <c r="H26">
-        <v>3.59</v>
-      </c>
-      <c r="I26">
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.95</v>
+      </c>
+      <c r="Z26">
+        <v>1.24</v>
+      </c>
+      <c r="AA26">
+        <v>3.19</v>
+      </c>
+      <c r="AB26">
+        <v>1.39</v>
+      </c>
+      <c r="AC26">
+        <v>9.6</v>
+      </c>
+      <c r="AD26">
+        <v>3.82</v>
+      </c>
+      <c r="AE26">
+        <v>1.35</v>
+      </c>
+      <c r="AF26">
+        <v>1.64</v>
+      </c>
+      <c r="AG26">
+        <v>2.06</v>
+      </c>
+      <c r="AH26">
         <v>2.71</v>
       </c>
-      <c r="J26">
-        <v>1.04</v>
-      </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>1.22</v>
-      </c>
-      <c r="M26">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <v>1.7</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26">
-        <v>1.33</v>
-      </c>
-      <c r="Q26">
-        <v>3.25</v>
-      </c>
-      <c r="R26">
-        <v>1.62</v>
-      </c>
-      <c r="S26">
-        <v>2.2</v>
-      </c>
-      <c r="T26">
-        <v>1.42</v>
-      </c>
-      <c r="U26">
-        <v>1.29</v>
-      </c>
-      <c r="V26">
-        <v>1.55</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>1.8</v>
-      </c>
-      <c r="AC26">
-        <v>7.8</v>
-      </c>
-      <c r="AD26">
-        <v>2.47</v>
-      </c>
-      <c r="AE26">
-        <v>1.25</v>
-      </c>
-      <c r="AF26">
-        <v>1.45</v>
-      </c>
-      <c r="AG26">
-        <v>1.75</v>
-      </c>
-      <c r="AH26">
-        <v>2.2</v>
-      </c>
       <c r="AI26">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3786,37 +3777,37 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G27">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="H27">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I27">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O27">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="P27">
         <v>1.3</v>
@@ -3825,25 +3816,25 @@
         <v>3.4</v>
       </c>
       <c r="R27">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S27">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3855,28 +3846,28 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3893,37 +3884,37 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G28">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="H28">
-        <v>3.77</v>
+        <v>3.45</v>
       </c>
       <c r="I28">
-        <v>3.43</v>
+        <v>2.68</v>
       </c>
       <c r="J28">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L28">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M28">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N28">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P28">
         <v>1.3</v>
@@ -3932,25 +3923,25 @@
         <v>3.4</v>
       </c>
       <c r="R28">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S28">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T28">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U28">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="V28">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3962,28 +3953,28 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="AC28">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="AD28">
-        <v>2.61</v>
+        <v>2.9</v>
       </c>
       <c r="AE28">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AF28">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AG28">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AH28">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AI28">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -4000,19 +3991,19 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G29">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H29">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="I29">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J29">
         <v>1.08</v>
@@ -4027,10 +4018,10 @@
         <v>3</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="O29">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="P29">
         <v>1.48</v>
@@ -4054,7 +4045,7 @@
         <v>1.58</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -4107,102 +4098,102 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G30">
-        <v>1.21</v>
+        <v>2.63</v>
       </c>
       <c r="H30">
-        <v>6.28</v>
+        <v>3.2</v>
       </c>
       <c r="I30">
-        <v>11.16</v>
+        <v>2.45</v>
       </c>
       <c r="J30">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="L30">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="N30">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="P30">
+        <v>1.44</v>
+      </c>
+      <c r="Q30">
+        <v>2.63</v>
+      </c>
+      <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>1.63</v>
+      </c>
+      <c r="U30">
         <v>1.25</v>
       </c>
-      <c r="Q30">
-        <v>3.75</v>
-      </c>
-      <c r="R30">
-        <v>2.25</v>
-      </c>
-      <c r="S30">
-        <v>1.57</v>
-      </c>
-      <c r="T30">
-        <v>1.04</v>
-      </c>
-      <c r="U30">
-        <v>1.06</v>
-      </c>
       <c r="V30">
-        <v>4.2</v>
+        <v>1.33</v>
       </c>
       <c r="W30">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="X30">
-        <v>0.08</v>
+        <v>1.42</v>
       </c>
       <c r="Y30">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="Z30">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AA30">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="AB30">
-        <v>1.09</v>
+        <v>2.1</v>
       </c>
       <c r="AC30">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AD30">
-        <v>8.85</v>
+        <v>1.91</v>
       </c>
       <c r="AE30">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AF30">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AG30">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AH30">
-        <v>2.11</v>
+        <v>2.63</v>
       </c>
       <c r="AI30">
-        <v>2.63</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2">
         <v>45135</v>
@@ -4211,100 +4202,100 @@
         <v>77</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G31">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="H31">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>3.18</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K31">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <v>1.16</v>
+      </c>
+      <c r="M31">
+        <v>4.75</v>
+      </c>
+      <c r="N31">
+        <v>1.55</v>
+      </c>
+      <c r="O31">
+        <v>2.35</v>
+      </c>
+      <c r="P31">
+        <v>1.25</v>
+      </c>
+      <c r="Q31">
+        <v>3.75</v>
+      </c>
+      <c r="R31">
+        <v>2.25</v>
+      </c>
+      <c r="S31">
+        <v>1.57</v>
+      </c>
+      <c r="T31">
+        <v>1.04</v>
+      </c>
+      <c r="U31">
+        <v>1.06</v>
+      </c>
+      <c r="V31">
+        <v>4.2</v>
+      </c>
+      <c r="W31">
+        <v>1.92</v>
+      </c>
+      <c r="X31">
+        <v>0.08</v>
+      </c>
+      <c r="Y31">
+        <v>1.64</v>
+      </c>
+      <c r="Z31">
+        <v>0.9</v>
+      </c>
+      <c r="AA31">
+        <v>2.54</v>
+      </c>
+      <c r="AB31">
+        <v>1.09</v>
+      </c>
+      <c r="AC31">
         <v>13</v>
       </c>
-      <c r="L31">
-        <v>1.24</v>
-      </c>
-      <c r="M31">
-        <v>4.07</v>
-      </c>
-      <c r="N31">
-        <v>1.84</v>
-      </c>
-      <c r="O31">
-        <v>2.01</v>
-      </c>
-      <c r="P31">
-        <v>1.36</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31">
-        <v>1.75</v>
-      </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <v>1.3</v>
-      </c>
-      <c r="U31">
-        <v>1.28</v>
-      </c>
-      <c r="V31">
-        <v>1.75</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>1.75</v>
-      </c>
-      <c r="AC31">
-        <v>7.4</v>
-      </c>
       <c r="AD31">
-        <v>2.55</v>
+        <v>8.85</v>
       </c>
       <c r="AE31">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AF31">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AG31">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AH31">
-        <v>2.44</v>
+        <v>2.11</v>
       </c>
       <c r="AI31">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4321,102 +4312,102 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G32">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H32">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="I32">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="J32">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K32">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L32">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M32">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O32">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="P32">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q32">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="U32">
         <v>1.25</v>
       </c>
       <c r="V32">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="W32">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="X32">
-        <v>1.27</v>
+        <v>0.92</v>
       </c>
       <c r="Y32">
-        <v>1.18</v>
+        <v>1.69</v>
       </c>
       <c r="Z32">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AA32">
-        <v>2.45</v>
+        <v>3.12</v>
       </c>
       <c r="AB32">
+        <v>1.84</v>
+      </c>
+      <c r="AC32">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD32">
+        <v>2.31</v>
+      </c>
+      <c r="AE32">
+        <v>1.2</v>
+      </c>
+      <c r="AF32">
+        <v>1.43</v>
+      </c>
+      <c r="AG32">
+        <v>1.7</v>
+      </c>
+      <c r="AH32">
         <v>2.1</v>
       </c>
-      <c r="AC32">
-        <v>7.5</v>
-      </c>
-      <c r="AD32">
-        <v>1.91</v>
-      </c>
-      <c r="AE32">
-        <v>1.43</v>
-      </c>
-      <c r="AF32">
-        <v>1.73</v>
-      </c>
-      <c r="AG32">
-        <v>2.1</v>
-      </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2.63</v>
-      </c>
-      <c r="AI32">
-        <v>3.92</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2">
         <v>45135</v>
@@ -4425,46 +4416,46 @@
         <v>77</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G33">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="H33">
-        <v>3.37</v>
+        <v>3.55</v>
       </c>
       <c r="I33">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="J33">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K33">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L33">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>4.07</v>
       </c>
       <c r="N33">
+        <v>1.89</v>
+      </c>
+      <c r="O33">
         <v>1.98</v>
       </c>
-      <c r="O33">
-        <v>1.81</v>
-      </c>
       <c r="P33">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R33">
         <v>1.75</v>
@@ -4473,52 +4464,52 @@
         <v>2</v>
       </c>
       <c r="T33">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U33">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V33">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X33">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AC33">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD33">
-        <v>2.31</v>
+        <v>2.55</v>
       </c>
       <c r="AE33">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF33">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AG33">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AH33">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="AI33">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4532,207 +4523,207 @@
         <v>78</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G34">
-        <v>2.64</v>
+        <v>2.15</v>
       </c>
       <c r="H34">
-        <v>3.48</v>
+        <v>2.9</v>
       </c>
       <c r="I34">
-        <v>2.51</v>
+        <v>3.6</v>
       </c>
       <c r="J34">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="K34">
-        <v>15.25</v>
+        <v>5.75</v>
       </c>
       <c r="L34">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="M34">
-        <v>4.45</v>
+        <v>2.35</v>
       </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O34">
-        <v>2.23</v>
+        <v>1.44</v>
       </c>
       <c r="P34">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="Q34">
-        <v>3.25</v>
+        <v>2.21</v>
       </c>
       <c r="R34">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="S34">
-        <v>2.51</v>
+        <v>1.62</v>
       </c>
       <c r="T34">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="U34">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="V34">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="W34">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="X34">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="Y34">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="Z34">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AA34">
-        <v>2.98</v>
+        <v>3.33</v>
       </c>
       <c r="AB34">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AC34">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD34">
-        <v>2</v>
+        <v>2.77</v>
       </c>
       <c r="AE34">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AF34">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AG34">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="AH34">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="AI34">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2">
         <v>45135</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G35">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H35">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I35">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="J35">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K35">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="L35">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="M35">
+        <v>2.6</v>
+      </c>
+      <c r="N35">
+        <v>2.45</v>
+      </c>
+      <c r="O35">
+        <v>1.53</v>
+      </c>
+      <c r="P35">
+        <v>1.5</v>
+      </c>
+      <c r="Q35">
         <v>2.35</v>
       </c>
-      <c r="N35">
-        <v>2.55</v>
-      </c>
-      <c r="O35">
-        <v>1.44</v>
-      </c>
-      <c r="P35">
-        <v>1.54</v>
-      </c>
-      <c r="Q35">
-        <v>2.21</v>
-      </c>
       <c r="R35">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="T35">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="U35">
+        <v>1.37</v>
+      </c>
+      <c r="V35">
+        <v>1.47</v>
+      </c>
+      <c r="W35">
+        <v>1.31</v>
+      </c>
+      <c r="X35">
         <v>1.38</v>
       </c>
-      <c r="V35">
-        <v>1.58</v>
-      </c>
-      <c r="W35">
-        <v>2</v>
-      </c>
-      <c r="X35">
-        <v>1.33</v>
-      </c>
       <c r="Y35">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="Z35">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AA35">
-        <v>3.33</v>
+        <v>2.98</v>
       </c>
       <c r="AB35">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AC35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD35">
-        <v>2.77</v>
+        <v>3.58</v>
       </c>
       <c r="AE35">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AF35">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AG35">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="AH35">
-        <v>2.84</v>
+        <v>2.19</v>
       </c>
       <c r="AI35">
-        <v>4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4746,100 +4737,100 @@
         <v>79</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G36">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="H36">
-        <v>2.95</v>
+        <v>2.78</v>
       </c>
       <c r="I36">
-        <v>2.85</v>
+        <v>2.11</v>
       </c>
       <c r="J36">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K36">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M36">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N36">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O36">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P36">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="Q36">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="R36">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S36">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="T36">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
       <c r="U36">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="V36">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="W36">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="X36">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y36">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="Z36">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AA36">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="AB36">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>2.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4850,16 +4841,16 @@
         <v>45135</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G37">
         <v>1.23</v>
@@ -4910,10 +4901,10 @@
         <v>3.7</v>
       </c>
       <c r="W37">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="X37">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="Y37">
         <v>1.52</v>
@@ -4960,76 +4951,76 @@
         <v>80</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G38">
-        <v>3.28</v>
+        <v>2.62</v>
       </c>
       <c r="H38">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="I38">
-        <v>2.37</v>
+        <v>2.28</v>
       </c>
       <c r="J38">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="P38">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X38">
-        <v>2</v>
+        <v>0.92</v>
       </c>
       <c r="Y38">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Z38">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AA38">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -5058,7 +5049,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2">
         <v>45135</v>
@@ -5067,207 +5058,207 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G39">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
       <c r="H39">
-        <v>3.36</v>
+        <v>2.87</v>
       </c>
       <c r="I39">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="O39">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W39">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="X39">
-        <v>0.92</v>
+        <v>2</v>
       </c>
       <c r="Y39">
         <v>1.22</v>
       </c>
       <c r="Z39">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA39">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2">
         <v>45135</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -5278,16 +5269,16 @@
         <v>45135</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5379,192 +5370,192 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>45135</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G42">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
         <v>1.5</v>
       </c>
-      <c r="M42">
-        <v>2.4</v>
-      </c>
-      <c r="N42">
-        <v>2.5</v>
-      </c>
-      <c r="O42">
-        <v>1.47</v>
-      </c>
-      <c r="P42">
-        <v>1.57</v>
-      </c>
-      <c r="Q42">
-        <v>2.25</v>
-      </c>
-      <c r="R42">
-        <v>2.1</v>
-      </c>
-      <c r="S42">
-        <v>1.65</v>
-      </c>
-      <c r="T42">
-        <v>1.33</v>
-      </c>
-      <c r="U42">
-        <v>1.38</v>
-      </c>
-      <c r="V42">
-        <v>1.53</v>
-      </c>
-      <c r="W42">
-        <v>1.75</v>
-      </c>
-      <c r="X42">
-        <v>0.75</v>
-      </c>
-      <c r="Y42">
-        <v>1.32</v>
-      </c>
       <c r="Z42">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AA42">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="AB42">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2">
         <v>45135</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5593,216 +5584,216 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2">
         <v>45135</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44">
         <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G44">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="H44">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I44">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="J44">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K44">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="L44">
+        <v>1.5</v>
+      </c>
+      <c r="M44">
+        <v>2.4</v>
+      </c>
+      <c r="N44">
+        <v>2.5</v>
+      </c>
+      <c r="O44">
+        <v>1.47</v>
+      </c>
+      <c r="P44">
+        <v>1.57</v>
+      </c>
+      <c r="Q44">
+        <v>2.25</v>
+      </c>
+      <c r="R44">
+        <v>2.1</v>
+      </c>
+      <c r="S44">
+        <v>1.65</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>1.38</v>
+      </c>
+      <c r="V44">
         <v>1.53</v>
       </c>
-      <c r="M44">
-        <v>2.3</v>
-      </c>
-      <c r="N44">
+      <c r="W44">
+        <v>1.75</v>
+      </c>
+      <c r="X44">
+        <v>0.75</v>
+      </c>
+      <c r="Y44">
+        <v>1.32</v>
+      </c>
+      <c r="Z44">
+        <v>1.28</v>
+      </c>
+      <c r="AA44">
         <v>2.6</v>
-      </c>
-      <c r="O44">
-        <v>1.43</v>
-      </c>
-      <c r="P44">
-        <v>1.55</v>
-      </c>
-      <c r="Q44">
-        <v>2.2</v>
-      </c>
-      <c r="R44">
-        <v>2.15</v>
-      </c>
-      <c r="S44">
-        <v>1.6</v>
-      </c>
-      <c r="T44">
-        <v>1.46</v>
-      </c>
-      <c r="U44">
-        <v>1.39</v>
-      </c>
-      <c r="V44">
-        <v>1.39</v>
-      </c>
-      <c r="W44">
-        <v>1.92</v>
-      </c>
-      <c r="X44">
-        <v>2</v>
-      </c>
-      <c r="Y44">
-        <v>1.22</v>
-      </c>
-      <c r="Z44">
-        <v>1.36</v>
-      </c>
-      <c r="AA44">
-        <v>2.58</v>
       </c>
       <c r="AB44">
         <v>1.95</v>
       </c>
       <c r="AC44">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD44">
         <v>2.1</v>
       </c>
       <c r="AE44">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AF44">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AG44">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="AH44">
-        <v>2.84</v>
+        <v>2.35</v>
       </c>
       <c r="AI44">
-        <v>4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>45135</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y45">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z45">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AA45">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -5813,108 +5804,108 @@
         <v>45135</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G46">
-        <v>1.78</v>
+        <v>2.09</v>
       </c>
       <c r="H46">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="I46">
-        <v>4.22</v>
+        <v>3.2</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L46">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="O46">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="P46">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="Q46">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="R46">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S46">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="U46">
         <v>1.28</v>
       </c>
       <c r="V46">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="W46">
-        <v>1.67</v>
+        <v>0.75</v>
       </c>
       <c r="X46">
+        <v>1.13</v>
+      </c>
+      <c r="Y46">
+        <v>1.58</v>
+      </c>
+      <c r="Z46">
         <v>1.11</v>
       </c>
-      <c r="Y46">
-        <v>1.74</v>
-      </c>
-      <c r="Z46">
-        <v>1.31</v>
-      </c>
       <c r="AA46">
-        <v>3.05</v>
+        <v>2.69</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>45135</v>
@@ -5923,105 +5914,105 @@
         <v>82</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G47">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H47">
-        <v>3.62</v>
+        <v>3.2</v>
       </c>
       <c r="I47">
-        <v>4.94</v>
+        <v>3.4</v>
       </c>
       <c r="J47">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K47">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="L47">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M47">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="O47">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="P47">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Q47">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R47">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="S47">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="T47">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="U47">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="V47">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W47">
         <v>1.44</v>
       </c>
       <c r="X47">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y47">
         <v>1.53</v>
       </c>
       <c r="Z47">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AA47">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="AB47">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE47">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AF47">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AG47">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="AH47">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AI47">
-        <v>2.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2">
         <v>45135</v>
@@ -6030,77 +6021,77 @@
         <v>83</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G48">
-        <v>1.82</v>
+        <v>1.16</v>
       </c>
       <c r="H48">
-        <v>3.32</v>
+        <v>5.4</v>
       </c>
       <c r="I48">
-        <v>4.03</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J48">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K48">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L48">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N48">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="O48">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="P48">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="Q48">
+        <v>3.4</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>1.67</v>
+      </c>
+      <c r="T48">
+        <v>1.03</v>
+      </c>
+      <c r="U48">
+        <v>1.12</v>
+      </c>
+      <c r="V48">
+        <v>2.95</v>
+      </c>
+      <c r="W48">
+        <v>1.25</v>
+      </c>
+      <c r="X48">
+        <v>0.63</v>
+      </c>
+      <c r="Y48">
+        <v>1.68</v>
+      </c>
+      <c r="Z48">
+        <v>0.92</v>
+      </c>
+      <c r="AA48">
         <v>2.6</v>
       </c>
-      <c r="R48">
-        <v>1.82</v>
-      </c>
-      <c r="S48">
-        <v>1.94</v>
-      </c>
-      <c r="T48">
-        <v>1.24</v>
-      </c>
-      <c r="U48">
-        <v>1.31</v>
-      </c>
-      <c r="V48">
-        <v>1.75</v>
-      </c>
-      <c r="W48">
-        <v>1.44</v>
-      </c>
-      <c r="X48">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y48">
-        <v>1.53</v>
-      </c>
-      <c r="Z48">
-        <v>1.42</v>
-      </c>
-      <c r="AA48">
-        <v>2.95</v>
-      </c>
       <c r="AB48">
         <v>0</v>
       </c>
@@ -6117,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH48">
         <v>0</v>
@@ -6134,103 +6125,103 @@
         <v>45135</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G49">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="H49">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I49">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="J49">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K49">
-        <v>18</v>
+        <v>6.9</v>
       </c>
       <c r="L49">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="M49">
-        <v>4.2</v>
+        <v>2.57</v>
       </c>
       <c r="N49">
-        <v>1.49</v>
+        <v>2.38</v>
       </c>
       <c r="O49">
-        <v>2.24</v>
+        <v>1.53</v>
       </c>
       <c r="P49">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q49">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="R49">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="S49">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="T49">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="U49">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="V49">
+        <v>2.02</v>
+      </c>
+      <c r="W49">
+        <v>2.17</v>
+      </c>
+      <c r="X49">
+        <v>1.27</v>
+      </c>
+      <c r="Y49">
+        <v>1.45</v>
+      </c>
+      <c r="Z49">
+        <v>1.5</v>
+      </c>
+      <c r="AA49">
         <v>2.95</v>
       </c>
-      <c r="W49">
-        <v>1.25</v>
-      </c>
-      <c r="X49">
-        <v>0.63</v>
-      </c>
-      <c r="Y49">
+      <c r="AB49">
+        <v>1.4</v>
+      </c>
+      <c r="AC49">
+        <v>9</v>
+      </c>
+      <c r="AD49">
+        <v>3.57</v>
+      </c>
+      <c r="AE49">
+        <v>1.36</v>
+      </c>
+      <c r="AF49">
         <v>1.68</v>
       </c>
-      <c r="Z49">
-        <v>0.92</v>
-      </c>
-      <c r="AA49">
-        <v>2.6</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
       <c r="AG49">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6244,129 +6235,129 @@
         <v>84</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G50">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J50">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K50">
-        <v>6.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L50">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="M50">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="N50">
-        <v>2.35</v>
+        <v>1.69</v>
       </c>
       <c r="O50">
-        <v>1.55</v>
+        <v>2.07</v>
       </c>
       <c r="P50">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="Q50">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="R50">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="S50">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="T50">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="U50">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="V50">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="W50">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>1.27</v>
+        <v>0.78</v>
       </c>
       <c r="Y50">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="Z50">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AA50">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="AB50">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AC50">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD50">
-        <v>3.57</v>
+        <v>3.16</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF50">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AG50">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="AH50">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2">
         <v>45135</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G51">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="H51">
         <v>3.1</v>
       </c>
       <c r="I51">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -6381,10 +6372,10 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -6449,7 +6440,7 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2">
         <v>45135</v>
@@ -6458,105 +6449,105 @@
         <v>85</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G52">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="H52">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="I52">
-        <v>5.07</v>
+        <v>4.36</v>
       </c>
       <c r="J52">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="K52">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="L52">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M52">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="N52">
+        <v>2.23</v>
+      </c>
+      <c r="O52">
+        <v>1.6</v>
+      </c>
+      <c r="P52">
+        <v>1.47</v>
+      </c>
+      <c r="Q52">
+        <v>2.5</v>
+      </c>
+      <c r="R52">
+        <v>2.01</v>
+      </c>
+      <c r="S52">
+        <v>1.76</v>
+      </c>
+      <c r="T52">
+        <v>1.17</v>
+      </c>
+      <c r="U52">
+        <v>1.27</v>
+      </c>
+      <c r="V52">
         <v>1.9</v>
       </c>
-      <c r="O52">
-        <v>1.8</v>
-      </c>
-      <c r="P52">
-        <v>1.39</v>
-      </c>
-      <c r="Q52">
+      <c r="W52">
         <v>2.75</v>
       </c>
-      <c r="R52">
-        <v>1.93</v>
-      </c>
-      <c r="S52">
-        <v>1.83</v>
-      </c>
-      <c r="T52">
-        <v>1.2</v>
-      </c>
-      <c r="U52">
-        <v>1.29</v>
-      </c>
-      <c r="V52">
-        <v>1.91</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
       <c r="X52">
-        <v>0.78</v>
+        <v>1.38</v>
       </c>
       <c r="Y52">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="Z52">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="AA52">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="AB52">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD52">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="AE52">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AH52">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AI52">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2">
         <v>45135</v>
@@ -6565,290 +6556,290 @@
         <v>86</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G53">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="H53">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="I53">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N53">
         <v>2.25</v>
       </c>
       <c r="O53">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="S53">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="W53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="X53">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="Y53">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="Z53">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AA53">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2">
         <v>45135</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54">
         <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G54">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="H54">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I54">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="J54">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K54">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L54">
+        <v>1.28</v>
+      </c>
+      <c r="M54">
+        <v>3.33</v>
+      </c>
+      <c r="N54">
+        <v>1.92</v>
+      </c>
+      <c r="O54">
+        <v>1.78</v>
+      </c>
+      <c r="P54">
         <v>1.4</v>
       </c>
-      <c r="M54">
+      <c r="Q54">
         <v>2.75</v>
       </c>
-      <c r="N54">
-        <v>2.4</v>
-      </c>
-      <c r="O54">
-        <v>1.53</v>
-      </c>
-      <c r="P54">
-        <v>1.46</v>
-      </c>
-      <c r="Q54">
-        <v>2.5</v>
-      </c>
       <c r="R54">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="U54">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V54">
-        <v>2.45</v>
+        <v>1.62</v>
       </c>
       <c r="W54">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="X54">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="Y54">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="Z54">
         <v>1.29</v>
       </c>
       <c r="AA54">
-        <v>2.88</v>
+        <v>3.14</v>
       </c>
       <c r="AB54">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AG54">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="AH54">
-        <v>1.74</v>
+        <v>2.17</v>
       </c>
       <c r="AI54">
-        <v>2.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>45135</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="H55">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>3.7</v>
+        <v>2.03</v>
       </c>
       <c r="J55">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="O55">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="X55">
-        <v>0.78</v>
+        <v>1.78</v>
       </c>
       <c r="Y55">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="Z55">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AA55">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -6866,10 +6857,10 @@
         <v>0</v>
       </c>
       <c r="AG55">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AH55">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -6877,22 +6868,22 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>45135</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56">
         <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G56">
         <v>1.43</v>
@@ -6984,7 +6975,7 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2">
         <v>45135</v>
@@ -6993,207 +6984,100 @@
         <v>87</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G57">
-        <v>3.73</v>
+        <v>2.65</v>
       </c>
       <c r="H57">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="I57">
-        <v>1.93</v>
+        <v>2.48</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O57">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="X57">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="Y57">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="Z57">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AA57">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AE57">
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG57">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH57">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45135</v>
-      </c>
-      <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" t="s">
-        <v>202</v>
-      </c>
-      <c r="G58">
-        <v>2.6</v>
-      </c>
-      <c r="H58">
-        <v>2.95</v>
-      </c>
-      <c r="I58">
-        <v>2.8</v>
-      </c>
-      <c r="J58">
-        <v>1.06</v>
-      </c>
-      <c r="K58">
-        <v>6.6</v>
-      </c>
-      <c r="L58">
-        <v>1.45</v>
-      </c>
-      <c r="M58">
-        <v>2.48</v>
-      </c>
-      <c r="N58">
         <v>2.45</v>
-      </c>
-      <c r="O58">
-        <v>1.52</v>
-      </c>
-      <c r="P58">
-        <v>1.52</v>
-      </c>
-      <c r="Q58">
-        <v>2.38</v>
-      </c>
-      <c r="R58">
-        <v>2.01</v>
-      </c>
-      <c r="S58">
-        <v>1.68</v>
-      </c>
-      <c r="T58">
-        <v>1.38</v>
-      </c>
-      <c r="U58">
-        <v>1.33</v>
-      </c>
-      <c r="V58">
-        <v>1.46</v>
-      </c>
-      <c r="W58">
-        <v>1.45</v>
-      </c>
-      <c r="X58">
-        <v>1.25</v>
-      </c>
-      <c r="Y58">
-        <v>1.82</v>
-      </c>
-      <c r="Z58">
-        <v>1.13</v>
-      </c>
-      <c r="AA58">
-        <v>2.95</v>
-      </c>
-      <c r="AB58">
-        <v>1.74</v>
-      </c>
-      <c r="AC58">
-        <v>8.4</v>
-      </c>
-      <c r="AD58">
-        <v>2.36</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>1.65</v>
-      </c>
-      <c r="AG58">
-        <v>2.04</v>
-      </c>
-      <c r="AH58">
-        <v>2.6</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
